--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws-artefacts\mappings\package_F03_test\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5467FD-4362-4996-BC55-E8CE62B2269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C53A8-5FC2-48FE-9726-AD1F7A2AF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7452" yWindow="2988" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="536">
   <si>
     <t>Field</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
   </si>
   <si>
     <t>Ontology version</t>
@@ -2714,13 +2711,25 @@
   </si>
   <si>
     <t>2016,2017,2018,2019,2020,2021,2022</t>
+  </si>
+  <si>
+    <t>sample_title</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>test_package</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2794,6 +2803,32 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2863,7 +2898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2932,11 +2967,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3087,6 +3152,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3346,10 +3424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3388,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,25 +3481,42 @@
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="72" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3442,16 +3537,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3479,16 +3574,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3516,16 +3611,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3553,16 +3648,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3618,17 +3713,17 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="62"/>
       <c r="G1" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
@@ -3652,34 +3747,34 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3700,15 +3795,15 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3726,10 +3821,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3750,26 +3845,26 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3792,26 +3887,26 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -3834,26 +3929,26 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -3868,26 +3963,26 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -3902,26 +3997,26 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3936,26 +4031,26 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3970,26 +4065,26 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4012,26 +4107,26 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>80</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4046,26 +4141,26 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -4080,26 +4175,26 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -4114,26 +4209,26 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -4148,10 +4243,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -4172,26 +4267,26 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4214,26 +4309,26 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -4248,10 +4343,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -4272,16 +4367,16 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -4298,26 +4393,26 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>127</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="H21" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -4332,10 +4427,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="35"/>
@@ -4364,26 +4459,26 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -4398,26 +4493,26 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -4432,15 +4527,15 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -4458,10 +4553,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="20"/>
@@ -4482,32 +4577,32 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J27" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -4520,26 +4615,26 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="C28" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>161</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>162</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="H28" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>165</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -4562,26 +4657,26 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="D29" s="41" t="s">
         <v>168</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>169</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="H29" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4596,16 +4691,16 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>174</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -4622,26 +4717,26 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4656,24 +4751,24 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4688,10 +4783,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4712,16 +4807,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -4738,10 +4833,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -4762,26 +4857,26 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="C36" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="D36" s="31" t="s">
         <v>197</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>198</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="H36" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -4798,20 +4893,20 @@
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
       <c r="C37" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>202</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>203</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4831,13 +4926,13 @@
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
       <c r="F38" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="43" t="s">
         <v>206</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>207</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -4852,20 +4947,20 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -4882,20 +4977,20 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -4912,22 +5007,22 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="H41" s="43" t="s">
         <v>221</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>222</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -4942,10 +5037,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4966,16 +5061,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4992,16 +5087,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -5018,10 +5113,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5042,16 +5137,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -5068,16 +5163,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -5094,10 +5189,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -5118,16 +5213,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -5144,16 +5239,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -5170,16 +5265,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -5196,10 +5291,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -5220,16 +5315,16 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -5246,16 +5341,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -5272,16 +5367,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -5298,10 +5393,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5322,16 +5417,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -5348,16 +5443,16 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -5374,1264 +5469,1264 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="46"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="46"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
       <c r="B91" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
       <c r="B92" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="48"/>
       <c r="B93" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
       <c r="B94" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>359</v>
       </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>361</v>
       </c>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>363</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>389</v>
       </c>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>402</v>
       </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E140" s="6"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E141" s="6"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E142" s="6"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E143" s="6"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E145" s="6"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>425</v>
       </c>
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E156" s="6"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>439</v>
       </c>
       <c r="E158" s="6"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="E159" s="6"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E160" s="6"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E161" s="6"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E163" s="6"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E164" s="6"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E165" s="6"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E166" s="6"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E167" s="6"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E168" s="6"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B169" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="E169" s="6"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B170" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="E170" s="6"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="E171" s="6"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>458</v>
       </c>
       <c r="E172" s="6"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="E175" s="6"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="E176" s="6"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B178" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="E178" s="6"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B179" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="E179" s="6"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B180" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="E181" s="6"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B182" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B184" s="11" t="s">
         <v>479</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>480</v>
       </c>
       <c r="E184" s="6"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="E185" s="6"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B186" s="26" t="s">
         <v>483</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>484</v>
       </c>
       <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B187" s="26" t="s">
         <v>485</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>486</v>
       </c>
       <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B188" s="26" t="s">
         <v>487</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>488</v>
       </c>
       <c r="E188" s="6"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B189" s="26" t="s">
         <v>489</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>490</v>
       </c>
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B190" s="26" t="s">
         <v>491</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>492</v>
       </c>
       <c r="E190" s="6"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B191" s="26" t="s">
         <v>493</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>494</v>
       </c>
       <c r="E191" s="6"/>
     </row>
@@ -9934,62 +10029,62 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>495</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>497</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -9998,7 +10093,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B16" s="42"/>
     </row>
@@ -10010,10 +10105,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>509</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -10046,17 +10141,17 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="62"/>
       <c r="G1" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="11"/>
@@ -10082,34 +10177,34 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -10132,34 +10227,34 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="F5" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="H5" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="J5" s="58" t="s">
         <v>516</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -10192,40 +10287,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -10253,32 +10348,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>527</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>529</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10306,16 +10401,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -10343,16 +10438,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -10380,16 +10475,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws-artefacts\mappings\package_F03_test\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C53A8-5FC2-48FE-9726-AD1F7A2AF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BADAF2-12F8-4BBC-BE9F-21CB93EE6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7452" yWindow="2988" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="538">
   <si>
     <t>Field</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>Ontology version</t>
   </si>
   <si>
     <t>3.0.0.alpha</t>
@@ -2723,13 +2720,22 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>EPO version</t>
+  </si>
+  <si>
+    <t>XSD version number(s)</t>
+  </si>
+  <si>
+    <t>R2.0.9.S04.E01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2829,6 +2835,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2898,7 +2913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2997,11 +3012,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3134,6 +3179,20 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3152,19 +3211,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3424,19 +3476,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3453,29 +3505,29 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3485,33 +3537,41 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="65" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="69" t="s">
+    </row>
+    <row r="9" spans="1:3" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="B11" s="64" t="s">
         <v>533</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3536,17 +3596,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3573,17 +3633,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3610,17 +3670,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3647,17 +3707,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3712,22 +3772,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -3747,34 +3807,34 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3795,15 +3855,15 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -3821,10 +3881,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3845,26 +3905,26 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3887,26 +3947,26 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -3929,26 +3989,26 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -3963,26 +4023,26 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -3997,26 +4057,26 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -4031,26 +4091,26 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -4065,26 +4125,26 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4107,26 +4167,26 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4141,26 +4201,26 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -4175,26 +4235,26 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -4209,26 +4269,26 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -4243,10 +4303,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -4267,26 +4327,26 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4309,26 +4369,26 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -4343,10 +4403,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -4367,16 +4427,16 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>121</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -4393,26 +4453,26 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="H21" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>129</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -4427,10 +4487,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>131</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="35"/>
@@ -4459,26 +4519,26 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -4493,26 +4553,26 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -4527,15 +4587,15 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -4553,10 +4613,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="20"/>
@@ -4577,32 +4637,32 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="J27" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -4615,26 +4675,26 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="C28" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="H28" s="39" t="s">
         <v>163</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>164</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -4657,26 +4717,26 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="D29" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>168</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="H29" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>171</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -4691,16 +4751,16 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -4717,26 +4777,26 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -4751,24 +4811,24 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4783,10 +4843,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4807,16 +4867,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -4833,10 +4893,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -4856,27 +4916,27 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="C36" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="D36" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="H36" s="31" t="s">
         <v>199</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>200</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -4890,23 +4950,23 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>201</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>202</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="31" t="s">
         <v>203</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>204</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -4920,19 +4980,19 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
       <c r="F38" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G38" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="43" t="s">
         <v>205</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>206</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -4947,20 +5007,20 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>210</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -4977,20 +5037,20 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -5007,22 +5067,22 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="H41" s="43" t="s">
         <v>220</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -5037,10 +5097,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -5061,16 +5121,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -5087,16 +5147,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -5113,10 +5173,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5137,16 +5197,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -5163,16 +5223,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -5189,10 +5249,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -5213,16 +5273,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -5239,16 +5299,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -5265,16 +5325,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -5291,10 +5351,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -5315,16 +5375,16 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>248</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -5341,16 +5401,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -5367,16 +5427,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -5393,10 +5453,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5417,16 +5477,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -5443,16 +5503,16 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -5469,1264 +5529,1264 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="46"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>320</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="46"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
       <c r="B91" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
       <c r="B92" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="48"/>
       <c r="B93" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
       <c r="B94" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>360</v>
       </c>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>390</v>
       </c>
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>392</v>
       </c>
       <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>413</v>
       </c>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" s="6"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E141" s="6"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E142" s="6"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" s="6"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E145" s="6"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>423</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E156" s="6"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="E158" s="6"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="E159" s="6"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E160" s="6"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E161" s="6"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E163" s="6"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E164" s="6"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E165" s="6"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E166" s="6"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E167" s="6"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E168" s="6"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B169" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="E169" s="6"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="E170" s="6"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>455</v>
       </c>
       <c r="E171" s="6"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="E172" s="6"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="E175" s="6"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="E176" s="6"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B178" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>467</v>
       </c>
       <c r="E178" s="6"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B179" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="E179" s="6"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B180" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="E181" s="6"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B182" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B184" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="E184" s="6"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="E185" s="6"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B186" s="26" t="s">
         <v>482</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>483</v>
       </c>
       <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B187" s="26" t="s">
         <v>484</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>485</v>
       </c>
       <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B188" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>487</v>
       </c>
       <c r="E188" s="6"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B189" s="26" t="s">
         <v>488</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>489</v>
       </c>
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B190" s="26" t="s">
         <v>490</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>491</v>
       </c>
       <c r="E190" s="6"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B191" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>493</v>
       </c>
       <c r="E191" s="6"/>
     </row>
@@ -10029,62 +10089,62 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>494</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>496</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>500</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10093,7 +10153,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16" s="42"/>
     </row>
@@ -10105,10 +10165,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>508</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -10140,20 +10200,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -10177,34 +10237,34 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -10227,34 +10287,34 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="F5" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="H5" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="J5" s="58" t="s">
         <v>515</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -10286,41 +10346,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -10347,33 +10407,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>526</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -10400,17 +10460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10437,17 +10497,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10474,17 +10534,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws-artefacts\mappings\package_F03_test\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BADAF2-12F8-4BBC-BE9F-21CB93EE6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67551DDC-8B32-4B4D-93F2-6393FE7F3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7452" yWindow="2988" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7452" yWindow="2988" windowWidth="13056" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
-    <sheet name="Legend" sheetId="3" r:id="rId3"/>
-    <sheet name="Ex sample data" sheetId="4" r:id="rId4"/>
-    <sheet name="Ex Controlled List of Roles (CL" sheetId="5" r:id="rId5"/>
-    <sheet name="Ex Controlled List for Organisa" sheetId="6" r:id="rId6"/>
-    <sheet name="CL3 (at-vocnuts)" sheetId="7" r:id="rId7"/>
-    <sheet name="CL4 (at-voccountry)" sheetId="8" r:id="rId8"/>
-    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="9" r:id="rId9"/>
-    <sheet name="CL6 (at-vocmain-activity)" sheetId="10" r:id="rId10"/>
-    <sheet name="CL7 (at-voccpv)" sheetId="11" r:id="rId11"/>
-    <sheet name="CL8 (at-voccontract-nature)" sheetId="12" r:id="rId12"/>
-    <sheet name="CL9 (at-voccurrency)" sheetId="13" r:id="rId13"/>
-    <sheet name="Questions" sheetId="14" r:id="rId14"/>
+    <sheet name="Resources" sheetId="15" r:id="rId3"/>
+    <sheet name="Legend" sheetId="3" r:id="rId4"/>
+    <sheet name="Ex sample data" sheetId="4" r:id="rId5"/>
+    <sheet name="Ex Controlled List of Roles (CL" sheetId="5" r:id="rId6"/>
+    <sheet name="Ex Controlled List for Organisa" sheetId="6" r:id="rId7"/>
+    <sheet name="CL3 (at-vocnuts)" sheetId="7" r:id="rId8"/>
+    <sheet name="CL4 (at-voccountry)" sheetId="8" r:id="rId9"/>
+    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="9" r:id="rId10"/>
+    <sheet name="CL6 (at-vocmain-activity)" sheetId="10" r:id="rId11"/>
+    <sheet name="CL7 (at-voccpv)" sheetId="11" r:id="rId12"/>
+    <sheet name="CL8 (at-voccontract-nature)" sheetId="12" r:id="rId13"/>
+    <sheet name="CL9 (at-voccurrency)" sheetId="13" r:id="rId14"/>
+    <sheet name="Questions" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="540">
   <si>
     <t>Field</t>
   </si>
@@ -2729,6 +2730,12 @@
   </si>
   <si>
     <t>R2.0.9.S04.E01</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>nuts.json</t>
   </si>
 </sst>
 </file>
@@ -3193,6 +3200,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3210,12 +3223,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3478,7 +3485,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3551,10 +3558,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="67" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3581,6 +3588,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3596,10 +3640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -3617,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3633,10 +3677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -3654,7 +3698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3670,10 +3714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -3691,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3707,10 +3751,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -3728,7 +3772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3772,22 +3816,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -4916,10 +4960,10 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="74" t="s">
         <v>194</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -4950,8 +4994,8 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="31" t="s">
         <v>200</v>
       </c>
@@ -4980,8 +5024,8 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -10073,6 +10117,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75659A0-60B8-435F-98E9-A64BD6DD7BD3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10176,7 +10249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10200,20 +10273,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -10330,7 +10403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10346,10 +10419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -10391,7 +10464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10407,10 +10480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -10444,7 +10517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10460,10 +10533,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -10481,7 +10554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10497,47 +10570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>518</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>516</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">Notice type (eForms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Form type(eForms)</t>
+    <t xml:space="preserve">Form type (eForms)</t>
   </si>
   <si>
     <t xml:space="preserve">Version</t>
@@ -3579,13 +3579,13 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A2 B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
   </cols>
   <sheetData>
@@ -3694,10 +3694,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3739,10 +3739,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3784,10 +3784,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3829,10 +3829,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3874,10 +3874,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3919,10 +3919,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
@@ -3948,19 +3948,19 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="A2 B4"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10277,13 +10277,13 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10360,10 +10360,10 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -10472,17 +10472,17 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.44"/>
@@ -10634,10 +10634,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -10703,10 +10703,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10764,10 +10764,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10809,10 +10809,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="546">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -2763,16 +2763,10 @@
     <t xml:space="preserve">main_activity.json</t>
   </si>
   <si>
-    <t xml:space="preserve">currency.json</t>
-  </si>
-  <si>
     <t xml:space="preserve">cpv.json</t>
   </si>
   <si>
     <t xml:space="preserve">contract_nature.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buyer_main_activity.json</t>
   </si>
   <si>
     <t xml:space="preserve">buyer_legal_type.json</t>
@@ -3579,11 +3573,11 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
@@ -3697,7 +3691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3705,16 +3699,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3736,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3750,16 +3744,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3781,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3795,16 +3789,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3826,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3840,16 +3834,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3885,16 +3879,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3916,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
@@ -3951,7 +3945,7 @@
       <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
@@ -3960,7 +3954,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10275,13 +10269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
@@ -10316,7 +10310,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>507</v>
       </c>
@@ -10331,16 +10325,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10363,7 +10349,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -10371,62 +10357,62 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="51" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="53" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="53" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="55" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="56" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="57" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10435,7 +10421,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B16" s="44"/>
     </row>
@@ -10447,10 +10433,10 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -10475,7 +10461,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -10586,25 +10572,25 @@
         <v>61</v>
       </c>
       <c r="D5" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="G5" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="H5" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>531</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="J5" s="60" t="s">
         <v>532</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,7 +10623,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -10645,40 +10631,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -10706,7 +10692,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10714,32 +10700,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -10767,7 +10753,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10775,16 +10761,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -10812,7 +10798,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10820,16 +10806,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
+    <t xml:space="preserve">1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">EPO version</t>
@@ -2751,16 +2751,16 @@
     <t xml:space="preserve">File name</t>
   </si>
   <si>
-    <t xml:space="preserve">countries.json</t>
+    <t xml:space="preserve">country.json</t>
   </si>
   <si>
     <t xml:space="preserve">nuts.json</t>
   </si>
   <si>
-    <t xml:space="preserve">procurement_procedure_type.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_activity.json</t>
+    <t xml:space="preserve">main_activity.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency.json</t>
   </si>
   <si>
     <t xml:space="preserve">cpv.json</t>
@@ -2769,7 +2769,7 @@
     <t xml:space="preserve">contract_nature.json</t>
   </si>
   <si>
-    <t xml:space="preserve">buyer_legal_type.json</t>
+    <t xml:space="preserve">buyer_legal_type.csv</t>
   </si>
   <si>
     <t xml:space="preserve">award_criterion_type.json</t>
@@ -3573,11 +3573,11 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
@@ -3691,7 +3691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3736,7 +3736,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3781,7 +3781,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3826,7 +3826,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3871,7 +3871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -3916,7 +3916,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
@@ -3945,7 +3945,7 @@
       <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
@@ -10271,11 +10271,11 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
@@ -10295,7 +10295,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
         <v>504</v>
       </c>
@@ -10349,7 +10349,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -10461,7 +10461,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -10623,7 +10623,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -10692,7 +10692,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10753,7 +10753,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -10798,7 +10798,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capitan\Desktop\WORKS\MEANING\ted-sws-artefacts\mappings\package_F03_test\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD1D10-27D3-45DD-8B33-F7ACC3470E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D01F6-AC5B-4484-B7A3-0EB28DB8DEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="2916" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15312" yWindow="2076" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="840">
   <si>
     <t>Field</t>
   </si>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>Legal Basis</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Year</t>
@@ -7073,6 +7070,12 @@
   </si>
   <si>
     <t>no_title</t>
+  </si>
+  <si>
+    <t>D23,D24,D25</t>
+  </si>
+  <si>
+    <t>2021,2020,2019</t>
   </si>
 </sst>
 </file>
@@ -7620,6 +7623,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7629,10 +7636,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7895,7 +7898,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7904,7 +7907,7 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7920,72 +7923,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="13.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="13.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="13.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="13.2">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>838</v>
+      <c r="A10" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="100" t="s">
+        <v>835</v>
+      </c>
+      <c r="B11" s="101" t="s">
         <v>836</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8009,17 +8012,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8046,17 +8049,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8083,17 +8086,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8120,17 +8123,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8157,17 +8160,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -8216,47 +8219,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8291,21 +8294,21 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="104"/>
+      <c r="G1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="100"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="104"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -8325,34 +8328,34 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -8373,15 +8376,15 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -8399,17 +8402,17 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -8425,26 +8428,26 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -8467,26 +8470,26 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -8509,26 +8512,26 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -8543,26 +8546,26 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -8577,26 +8580,26 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -8611,26 +8614,26 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -8645,26 +8648,26 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>86</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -8687,26 +8690,26 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -8721,26 +8724,26 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -8755,26 +8758,26 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -8789,26 +8792,26 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -8823,10 +8826,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8847,26 +8850,26 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="H17" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -8889,26 +8892,26 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -8923,10 +8926,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>133</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -8947,16 +8950,16 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
@@ -8973,26 +8976,26 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="C21" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="H21" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -9007,10 +9010,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>144</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
@@ -9039,26 +9042,26 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -9073,26 +9076,26 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -9107,15 +9110,15 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>160</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>161</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -9133,20 +9136,20 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14"/>
       <c r="F26" s="10"/>
       <c r="G26" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -9161,32 +9164,32 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="H27" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="J27" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -9199,26 +9202,26 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="C28" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="H28" s="39" t="s">
         <v>179</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>180</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -9241,26 +9244,26 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -9275,26 +9278,26 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>193</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -9309,26 +9312,26 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="H31" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -9343,26 +9346,26 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="44" t="s">
         <v>203</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>204</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -9377,10 +9380,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>208</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -9401,16 +9404,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>209</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>210</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -9427,10 +9430,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -9453,20 +9456,20 @@
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>214</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>215</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="H36" s="30" t="s">
         <v>217</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>218</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -9481,20 +9484,20 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
@@ -9511,20 +9514,20 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
@@ -9541,22 +9544,22 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="H39" s="45" t="s">
         <v>232</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>233</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -9571,20 +9574,20 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -9599,26 +9602,26 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>169</v>
-      </c>
       <c r="D41" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="H41" s="30" t="s">
         <v>239</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>240</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -9633,26 +9636,26 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -9667,10 +9670,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -9691,26 +9694,26 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="H44" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -9725,26 +9728,26 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -9759,10 +9762,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -9783,26 +9786,26 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="H47" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -9817,26 +9820,26 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="D48" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>268</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="H48" s="19" t="s">
         <v>270</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>271</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -9851,26 +9854,26 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>273</v>
-      </c>
       <c r="C49" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="30" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>204</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -9885,24 +9888,24 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -9917,26 +9920,26 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="D51" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="H51" s="49" t="s">
         <v>287</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>288</v>
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -9951,26 +9954,26 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>290</v>
-      </c>
       <c r="C52" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="48" t="s">
         <v>278</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>279</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="49" t="s">
         <v>291</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>292</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -9985,26 +9988,26 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>294</v>
-      </c>
       <c r="C53" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H53" s="49" t="s">
         <v>295</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>296</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -10019,16 +10022,16 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>298</v>
-      </c>
       <c r="C54" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="46"/>
@@ -10047,23 +10050,23 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="C55" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="C55" s="48" t="s">
-        <v>301</v>
-      </c>
       <c r="D55" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="14"/>
@@ -10079,23 +10082,23 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="C56" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="D56" s="48" t="s">
         <v>306</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>307</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>309</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -10111,10 +10114,10 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>310</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
@@ -10125,95 +10128,95 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="D58" s="50" t="s">
         <v>314</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>315</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="H58" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>320</v>
-      </c>
       <c r="C59" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D59" s="50" t="s">
         <v>314</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>315</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="H59" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="C60" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="D60" s="50" t="s">
         <v>326</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>327</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="E61" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>332</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E62" s="14"/>
       <c r="G62" s="14"/>
@@ -10221,10 +10224,10 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>334</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>335</v>
       </c>
       <c r="E63" s="14"/>
       <c r="G63" s="14"/>
@@ -10232,299 +10235,299 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="C64" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G64" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="H64" s="49" t="s">
         <v>341</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="C65" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="H65" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="C66" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>357</v>
-      </c>
       <c r="C67" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H67" s="49" t="s">
         <v>358</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="H67" s="49" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="H68" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>365</v>
-      </c>
       <c r="C70" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H70" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="H70" s="53" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="H71" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>373</v>
-      </c>
       <c r="C73" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H73" s="49" t="s">
         <v>374</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="H73" s="49" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>377</v>
-      </c>
       <c r="C74" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H74" s="49" t="s">
         <v>378</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="H74" s="49" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>381</v>
-      </c>
       <c r="C75" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="C76" s="50" t="s">
         <v>385</v>
-      </c>
-      <c r="C76" s="50" t="s">
-        <v>386</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="14"/>
@@ -10534,61 +10537,61 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="G77" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="H77" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="C78" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>397</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="H78" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>402</v>
-      </c>
       <c r="C79" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="51"/>
@@ -10597,58 +10600,58 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="C80" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>406</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G80" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="G80" s="30" t="s">
+      <c r="H80" s="30" t="s">
         <v>408</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="C81" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G81" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="H81" s="30" t="s">
         <v>415</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="E82" s="14"/>
       <c r="G82" s="14"/>
@@ -10656,34 +10659,34 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="D83" s="54" t="s">
         <v>421</v>
-      </c>
-      <c r="D83" s="54" t="s">
-        <v>422</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="G83" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="G83" s="30" t="s">
+      <c r="H83" s="30" t="s">
         <v>424</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>426</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>427</v>
       </c>
       <c r="E84" s="14"/>
       <c r="G84" s="14"/>
@@ -10691,34 +10694,34 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="C85" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>431</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="G85" s="30" t="s">
+      <c r="H85" s="30" t="s">
         <v>433</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="C86" s="10"/>
       <c r="E86" s="14"/>
@@ -10727,130 +10730,130 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="C87" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="E88" s="19" t="s">
         <v>444</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>445</v>
       </c>
       <c r="F88" s="55"/>
       <c r="G88" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="56"/>
       <c r="B89" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C89" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="D89" s="57" t="s">
         <v>448</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>449</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G89" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="H89" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="56"/>
       <c r="B90" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="D90" s="57" t="s">
         <v>454</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>455</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="G90" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="G90" s="52" t="s">
+      <c r="H90" s="19" t="s">
         <v>457</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="56"/>
       <c r="B91" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="D91" s="57" t="s">
         <v>459</v>
-      </c>
-      <c r="D91" s="57" t="s">
-        <v>460</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G91" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="H91" s="19" t="s">
         <v>461</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="56"/>
       <c r="B92" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="59" t="s">
         <v>464</v>
-      </c>
-      <c r="D92" s="59" t="s">
-        <v>465</v>
       </c>
       <c r="E92" s="35"/>
       <c r="F92" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G92" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="G92" s="30" t="s">
+      <c r="H92" s="53" t="s">
         <v>467</v>
-      </c>
-      <c r="H92" s="53" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -10865,13 +10868,13 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>470</v>
-      </c>
       <c r="C94" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D94" s="57"/>
       <c r="E94" s="14"/>
@@ -10881,13 +10884,13 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D95" s="57"/>
       <c r="E95" s="14"/>
@@ -10897,83 +10900,83 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="C96" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="57" t="s">
         <v>474</v>
-      </c>
-      <c r="D96" s="57" t="s">
-        <v>475</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="G96" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="H96" s="49" t="s">
         <v>477</v>
-      </c>
-      <c r="H96" s="49" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>480</v>
-      </c>
       <c r="C97" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="D97" s="57" t="s">
         <v>474</v>
-      </c>
-      <c r="D97" s="57" t="s">
-        <v>475</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G97" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="H97" s="49" t="s">
         <v>482</v>
-      </c>
-      <c r="H97" s="49" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="C98" s="63" t="s">
         <v>485</v>
-      </c>
-      <c r="C98" s="63" t="s">
-        <v>486</v>
       </c>
       <c r="D98" s="57"/>
       <c r="E98" s="14"/>
       <c r="F98" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G98" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="H98" s="64" t="s">
         <v>488</v>
-      </c>
-      <c r="H98" s="64" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C99" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D99" s="57"/>
       <c r="E99" s="14"/>
@@ -10983,428 +10986,428 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="B100" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="C100" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="57" t="s">
         <v>493</v>
-      </c>
-      <c r="D100" s="57" t="s">
-        <v>494</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="G100" s="65" t="s">
+        <v>460</v>
+      </c>
+      <c r="H100" s="19" t="s">
         <v>495</v>
-      </c>
-      <c r="G100" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>498</v>
-      </c>
       <c r="C101" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D101" s="57"/>
       <c r="E101" s="14"/>
       <c r="F101" s="66" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="C102" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="57" t="s">
         <v>502</v>
-      </c>
-      <c r="D102" s="57" t="s">
-        <v>503</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="G102" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="H102" s="19" t="s">
         <v>505</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="C103" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="D103" s="57" t="s">
         <v>509</v>
-      </c>
-      <c r="D103" s="57" t="s">
-        <v>510</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="G103" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="H103" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="H103" s="19" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>515</v>
-      </c>
       <c r="C104" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="D104" s="57" t="s">
         <v>509</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>510</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H104" s="19" t="s">
         <v>516</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>519</v>
-      </c>
       <c r="C105" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" s="57" t="s">
         <v>509</v>
-      </c>
-      <c r="D105" s="57" t="s">
-        <v>510</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H105" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>523</v>
-      </c>
       <c r="C106" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" s="57" t="s">
         <v>509</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>510</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H106" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="C107" s="67" t="s">
         <v>527</v>
-      </c>
-      <c r="C107" s="67" t="s">
-        <v>528</v>
       </c>
       <c r="D107" s="57"/>
       <c r="E107" s="14"/>
       <c r="F107" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="G107" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="G107" s="30" t="s">
+      <c r="H107" s="30" t="s">
         <v>530</v>
-      </c>
-      <c r="H107" s="30" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>533</v>
-      </c>
       <c r="C108" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D108" s="57"/>
       <c r="E108" s="14"/>
       <c r="F108" s="62"/>
       <c r="G108" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="D109" s="57" t="s">
         <v>45</v>
-      </c>
-      <c r="D109" s="57" t="s">
-        <v>46</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" s="21" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B110" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="D110" s="57" t="s">
         <v>52</v>
-      </c>
-      <c r="D110" s="57" t="s">
-        <v>53</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H110" s="23" t="s">
         <v>539</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B111" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="D111" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="D111" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B112" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C112" s="62" t="s">
+      <c r="D112" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D112" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" s="19" t="s">
         <v>545</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B113" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="D113" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="D113" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" s="30" t="s">
         <v>548</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H113" s="30" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" s="57" t="s">
         <v>550</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" s="57" t="s">
-        <v>551</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H114" s="19" t="s">
         <v>552</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B115" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="D115" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="D115" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H115" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H115" s="21" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B116" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="D116" s="57" t="s">
         <v>105</v>
-      </c>
-      <c r="D116" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H116" s="19" t="s">
         <v>558</v>
-      </c>
-      <c r="G116" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H116" s="19" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B117" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="62" t="s">
+      <c r="D117" s="57" t="s">
         <v>99</v>
-      </c>
-      <c r="D117" s="57" t="s">
-        <v>100</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H117" s="19" t="s">
         <v>561</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="C118" s="62"/>
       <c r="D118" s="57"/>
@@ -11415,57 +11418,57 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B119" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="62" t="s">
+      <c r="D119" s="57" t="s">
         <v>112</v>
-      </c>
-      <c r="D119" s="57" t="s">
-        <v>113</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="58" t="s">
+        <v>565</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H119" s="19" t="s">
         <v>566</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="C120" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="C120" s="68" t="s">
+      <c r="D120" s="59" t="s">
         <v>570</v>
-      </c>
-      <c r="D120" s="59" t="s">
-        <v>571</v>
       </c>
       <c r="E120" s="35"/>
       <c r="F120" s="60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G120" s="30"/>
       <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>574</v>
-      </c>
       <c r="C121" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D121" s="57"/>
       <c r="E121" s="14"/>
@@ -11475,131 +11478,131 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>576</v>
-      </c>
       <c r="C122" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" s="57" t="s">
         <v>214</v>
-      </c>
-      <c r="D122" s="57" t="s">
-        <v>215</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="G122" s="69" t="s">
         <v>577</v>
       </c>
-      <c r="G122" s="69" t="s">
+      <c r="H122" s="69" t="s">
         <v>578</v>
-      </c>
-      <c r="H122" s="69" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="C123" s="57" t="s">
         <v>581</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="D123" s="57" t="s">
         <v>582</v>
-      </c>
-      <c r="D123" s="57" t="s">
-        <v>583</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="G123" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="H123" s="19" t="s">
         <v>585</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B124" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="D124" s="57" t="s">
         <v>221</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>222</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="G124" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="G124" s="30" t="s">
+      <c r="H124" s="19" t="s">
         <v>589</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B125" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="D125" s="57" t="s">
         <v>226</v>
-      </c>
-      <c r="D125" s="57" t="s">
-        <v>227</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="H125" s="19" t="s">
         <v>592</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="H125" s="19" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" s="70" t="s">
         <v>594</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="70" t="s">
-        <v>595</v>
       </c>
       <c r="D126" s="59"/>
       <c r="E126" s="35"/>
       <c r="F126" s="71" t="s">
+        <v>595</v>
+      </c>
+      <c r="G126" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="G126" s="30" t="s">
+      <c r="H126" s="30" t="s">
         <v>597</v>
-      </c>
-      <c r="H126" s="30" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>600</v>
-      </c>
       <c r="C127" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D127" s="57"/>
       <c r="E127" s="14"/>
@@ -11609,143 +11612,143 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="C128" s="57" t="s">
         <v>602</v>
       </c>
-      <c r="C128" s="57" t="s">
+      <c r="D128" s="59" t="s">
         <v>603</v>
-      </c>
-      <c r="D128" s="59" t="s">
-        <v>604</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G128" s="72"/>
       <c r="H128" s="72"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="C129" s="57" t="s">
         <v>607</v>
       </c>
-      <c r="C129" s="57" t="s">
+      <c r="D129" s="59" t="s">
         <v>608</v>
-      </c>
-      <c r="D129" s="59" t="s">
-        <v>609</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B130" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="C130" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="C130" s="57" t="s">
+      <c r="D130" s="59" t="s">
         <v>612</v>
-      </c>
-      <c r="D130" s="59" t="s">
-        <v>613</v>
       </c>
       <c r="E130" s="35"/>
       <c r="F130" s="59"/>
       <c r="G130" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="H130" s="30" t="s">
         <v>614</v>
-      </c>
-      <c r="H130" s="30" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D131" s="57"/>
       <c r="E131" s="14"/>
       <c r="F131" s="58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="B132" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="C132" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="C132" s="57" t="s">
+      <c r="D132" s="57" t="s">
         <v>620</v>
-      </c>
-      <c r="D132" s="57" t="s">
-        <v>621</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="G132" s="65" t="s">
         <v>622</v>
       </c>
-      <c r="G132" s="65" t="s">
+      <c r="H132" s="19" t="s">
         <v>623</v>
-      </c>
-      <c r="H132" s="19" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B133" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="C133" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="C133" s="57" t="s">
+      <c r="D133" s="57" t="s">
         <v>627</v>
-      </c>
-      <c r="D133" s="57" t="s">
-        <v>628</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="G133" s="65" t="s">
+        <v>622</v>
+      </c>
+      <c r="H133" s="19" t="s">
         <v>629</v>
-      </c>
-      <c r="G133" s="65" t="s">
-        <v>623</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="B134" s="19" t="s">
         <v>631</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>632</v>
       </c>
       <c r="C134" s="73"/>
       <c r="D134" s="74"/>
       <c r="E134" s="75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F134" s="73"/>
       <c r="G134" s="74"/>
@@ -11753,35 +11756,35 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B135" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C135" s="57" t="s">
         <v>325</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>326</v>
       </c>
       <c r="D135" s="74"/>
       <c r="E135" s="74"/>
       <c r="F135" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G135" s="77" t="s">
         <v>635</v>
       </c>
-      <c r="G135" s="77" t="s">
+      <c r="H135" s="78" t="s">
         <v>636</v>
-      </c>
-      <c r="H135" s="78" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>639</v>
-      </c>
       <c r="C136" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D136" s="74"/>
       <c r="E136" s="74"/>
@@ -11791,758 +11794,758 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>641</v>
-      </c>
       <c r="C137" s="80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D137" s="74"/>
       <c r="E137" s="74"/>
       <c r="F137" s="62"/>
       <c r="G137" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H137" s="74"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B138" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="57" t="s">
+      <c r="D138" s="57" t="s">
         <v>45</v>
-      </c>
-      <c r="D138" s="57" t="s">
-        <v>46</v>
       </c>
       <c r="E138" s="74"/>
       <c r="F138" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="G138" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" s="81" t="s">
         <v>644</v>
-      </c>
-      <c r="G138" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="H138" s="81" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B139" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C139" s="57" t="s">
+      <c r="D139" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="D139" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="E139" s="74"/>
       <c r="F139" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="G139" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H139" s="81" t="s">
         <v>647</v>
-      </c>
-      <c r="G139" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H139" s="81" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B140" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C140" s="57" t="s">
+      <c r="D140" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D140" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="E140" s="74"/>
       <c r="F140" s="58" t="s">
+        <v>649</v>
+      </c>
+      <c r="G140" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H140" s="81" t="s">
         <v>650</v>
-      </c>
-      <c r="G140" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H140" s="81" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B141" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C141" s="57" t="s">
-        <v>79</v>
-      </c>
       <c r="D141" s="57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E141" s="74"/>
       <c r="F141" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="G141" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" s="82" t="s">
         <v>653</v>
-      </c>
-      <c r="G141" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="H141" s="82" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B142" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C142" s="57" t="s">
+      <c r="D142" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="D142" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="E142" s="74"/>
       <c r="F142" s="58" t="s">
+        <v>655</v>
+      </c>
+      <c r="G142" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" s="83" t="s">
         <v>656</v>
-      </c>
-      <c r="G142" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" s="83" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B143" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C143" s="57" t="s">
+      <c r="D143" s="57" t="s">
         <v>105</v>
-      </c>
-      <c r="D143" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="E143" s="74"/>
       <c r="F143" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="G143" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H143" s="81" t="s">
         <v>659</v>
-      </c>
-      <c r="G143" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H143" s="81" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B144" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C144" s="57" t="s">
+      <c r="D144" s="57" t="s">
         <v>99</v>
-      </c>
-      <c r="D144" s="57" t="s">
-        <v>100</v>
       </c>
       <c r="E144" s="74"/>
       <c r="F144" s="58" t="s">
+        <v>661</v>
+      </c>
+      <c r="G144" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H144" s="82" t="s">
         <v>662</v>
-      </c>
-      <c r="G144" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H144" s="82" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="B145" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="B145" s="19" t="s">
-        <v>665</v>
-      </c>
       <c r="C145" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D145" s="57" t="s">
         <v>120</v>
-      </c>
-      <c r="D145" s="57" t="s">
-        <v>121</v>
       </c>
       <c r="E145" s="74"/>
       <c r="F145" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="G145" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H145" s="82" t="s">
         <v>666</v>
-      </c>
-      <c r="G145" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="H145" s="82" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B146" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="D146" s="57" t="s">
         <v>112</v>
-      </c>
-      <c r="D146" s="57" t="s">
-        <v>113</v>
       </c>
       <c r="E146" s="74"/>
       <c r="F146" s="58" t="s">
+        <v>668</v>
+      </c>
+      <c r="G146" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H146" s="82" t="s">
         <v>669</v>
-      </c>
-      <c r="G146" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H146" s="82" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="B147" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>672</v>
-      </c>
       <c r="C147" s="80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D147" s="84"/>
       <c r="E147" s="74"/>
       <c r="F147" s="62"/>
       <c r="G147" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H147" s="74"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B148" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="D148" s="57" t="s">
         <v>45</v>
-      </c>
-      <c r="D148" s="57" t="s">
-        <v>46</v>
       </c>
       <c r="E148" s="74"/>
       <c r="F148" s="58" t="s">
+        <v>674</v>
+      </c>
+      <c r="G148" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H148" s="81" t="s">
         <v>675</v>
-      </c>
-      <c r="G148" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="H148" s="81" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B149" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C149" s="57" t="s">
+      <c r="D149" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="D149" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="E149" s="74"/>
       <c r="F149" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="G149" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H149" s="81" t="s">
         <v>678</v>
-      </c>
-      <c r="G149" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H149" s="81" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B150" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C150" s="57" t="s">
+      <c r="D150" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D150" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="E150" s="74"/>
       <c r="F150" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="G150" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H150" s="81" t="s">
         <v>681</v>
-      </c>
-      <c r="G150" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H150" s="81" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B151" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C151" s="57" t="s">
-        <v>79</v>
-      </c>
       <c r="D151" s="57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E151" s="74"/>
       <c r="F151" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="G151" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" s="82" t="s">
         <v>684</v>
-      </c>
-      <c r="G151" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="H151" s="82" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B152" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C152" s="57" t="s">
+      <c r="D152" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="D152" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="E152" s="74"/>
       <c r="F152" s="58" t="s">
+        <v>686</v>
+      </c>
+      <c r="G152" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" s="83" t="s">
         <v>687</v>
-      </c>
-      <c r="G152" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H152" s="83" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B153" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C153" s="57" t="s">
+      <c r="D153" s="57" t="s">
         <v>105</v>
-      </c>
-      <c r="D153" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="E153" s="74"/>
       <c r="F153" s="58" t="s">
+        <v>689</v>
+      </c>
+      <c r="G153" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H153" s="81" t="s">
         <v>690</v>
-      </c>
-      <c r="G153" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H153" s="81" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B154" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C154" s="57" t="s">
+      <c r="D154" s="57" t="s">
         <v>99</v>
-      </c>
-      <c r="D154" s="57" t="s">
-        <v>100</v>
       </c>
       <c r="E154" s="74"/>
       <c r="F154" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="G154" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="82" t="s">
         <v>693</v>
-      </c>
-      <c r="G154" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H154" s="82" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C155" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D155" s="57" t="s">
         <v>120</v>
-      </c>
-      <c r="D155" s="57" t="s">
-        <v>121</v>
       </c>
       <c r="E155" s="74"/>
       <c r="F155" s="58" t="s">
+        <v>695</v>
+      </c>
+      <c r="G155" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H155" s="82" t="s">
         <v>696</v>
-      </c>
-      <c r="G155" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="H155" s="82" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B156" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C156" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C156" s="57" t="s">
+      <c r="D156" s="57" t="s">
         <v>112</v>
-      </c>
-      <c r="D156" s="57" t="s">
-        <v>113</v>
       </c>
       <c r="E156" s="74"/>
       <c r="F156" s="58" t="s">
+        <v>698</v>
+      </c>
+      <c r="G156" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H156" s="82" t="s">
         <v>699</v>
-      </c>
-      <c r="G156" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H156" s="82" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B157" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="C157" s="57" t="s">
         <v>702</v>
       </c>
-      <c r="C157" s="57" t="s">
+      <c r="D157" s="57" t="s">
         <v>703</v>
-      </c>
-      <c r="D157" s="57" t="s">
-        <v>704</v>
       </c>
       <c r="E157" s="74"/>
       <c r="F157" s="85" t="s">
+        <v>704</v>
+      </c>
+      <c r="G157" s="86" t="s">
         <v>705</v>
       </c>
-      <c r="G157" s="86" t="s">
+      <c r="H157" s="86" t="s">
         <v>706</v>
-      </c>
-      <c r="H157" s="86" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B158" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="C158" s="73"/>
       <c r="D158" s="73"/>
       <c r="E158" s="74"/>
       <c r="F158" s="68"/>
       <c r="G158" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H158" s="59"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B159" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C159" s="57" t="s">
+      <c r="D159" s="57" t="s">
         <v>45</v>
-      </c>
-      <c r="D159" s="57" t="s">
-        <v>46</v>
       </c>
       <c r="E159" s="74"/>
       <c r="F159" s="58" t="s">
+        <v>711</v>
+      </c>
+      <c r="G159" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H159" s="81" t="s">
         <v>712</v>
-      </c>
-      <c r="G159" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="H159" s="81" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B160" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="57" t="s">
+      <c r="D160" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="D160" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="E160" s="74"/>
       <c r="F160" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="G160" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H160" s="81" t="s">
         <v>715</v>
-      </c>
-      <c r="G160" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H160" s="81" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B161" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="57" t="s">
+      <c r="D161" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D161" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="E161" s="74"/>
       <c r="F161" s="58" t="s">
+        <v>717</v>
+      </c>
+      <c r="G161" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H161" s="81" t="s">
         <v>718</v>
-      </c>
-      <c r="G161" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H161" s="81" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="28" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B162" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C162" s="57" t="s">
-        <v>79</v>
-      </c>
       <c r="D162" s="57" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E162" s="74"/>
       <c r="F162" s="58" t="s">
+        <v>720</v>
+      </c>
+      <c r="G162" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H162" s="82" t="s">
         <v>721</v>
-      </c>
-      <c r="G162" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="H162" s="82" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B163" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C163" s="57" t="s">
+      <c r="D163" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="D163" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="E163" s="74"/>
       <c r="F163" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="G163" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" s="83" t="s">
         <v>724</v>
-      </c>
-      <c r="G163" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H163" s="83" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B164" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C164" s="57" t="s">
+      <c r="D164" s="57" t="s">
         <v>105</v>
-      </c>
-      <c r="D164" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="E164" s="74"/>
       <c r="F164" s="58" t="s">
+        <v>726</v>
+      </c>
+      <c r="G164" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H164" s="81" t="s">
         <v>727</v>
-      </c>
-      <c r="G164" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H164" s="81" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B165" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C165" s="57" t="s">
+      <c r="D165" s="57" t="s">
         <v>99</v>
-      </c>
-      <c r="D165" s="57" t="s">
-        <v>100</v>
       </c>
       <c r="E165" s="74"/>
       <c r="F165" s="58" t="s">
+        <v>729</v>
+      </c>
+      <c r="G165" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" s="82" t="s">
         <v>730</v>
-      </c>
-      <c r="G165" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H165" s="82" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C166" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="57" t="s">
         <v>120</v>
-      </c>
-      <c r="D166" s="57" t="s">
-        <v>121</v>
       </c>
       <c r="E166" s="74"/>
       <c r="F166" s="58" t="s">
+        <v>732</v>
+      </c>
+      <c r="G166" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H166" s="82" t="s">
         <v>733</v>
-      </c>
-      <c r="G166" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="H166" s="82" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B167" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C167" s="57" t="s">
+      <c r="D167" s="57" t="s">
         <v>112</v>
-      </c>
-      <c r="D167" s="57" t="s">
-        <v>113</v>
       </c>
       <c r="E167" s="74"/>
       <c r="F167" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="G167" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H167" s="82" t="s">
         <v>736</v>
-      </c>
-      <c r="G167" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H167" s="82" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="B168" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="C168" s="87" t="s">
         <v>739</v>
       </c>
-      <c r="C168" s="87" t="s">
+      <c r="D168" s="87" t="s">
         <v>740</v>
-      </c>
-      <c r="D168" s="87" t="s">
-        <v>741</v>
       </c>
       <c r="E168" s="74"/>
       <c r="F168" s="88" t="s">
+        <v>741</v>
+      </c>
+      <c r="G168" s="78" t="s">
         <v>742</v>
       </c>
-      <c r="G168" s="78" t="s">
+      <c r="H168" s="78" t="s">
         <v>743</v>
-      </c>
-      <c r="H168" s="78" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="B169" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>746</v>
       </c>
       <c r="E169" s="14"/>
       <c r="G169" s="14"/>
@@ -12550,10 +12553,10 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="B170" s="19" t="s">
         <v>747</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>748</v>
       </c>
       <c r="E170" s="14"/>
       <c r="G170" s="14"/>
@@ -12561,10 +12564,10 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="B171" s="19" t="s">
         <v>749</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>750</v>
       </c>
       <c r="E171" s="14"/>
       <c r="G171" s="14"/>
@@ -12572,10 +12575,10 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E172" s="14"/>
       <c r="G172" s="14"/>
@@ -12583,10 +12586,10 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E173" s="14"/>
       <c r="G173" s="14"/>
@@ -12594,10 +12597,10 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="B174" s="19" t="s">
         <v>753</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>754</v>
       </c>
       <c r="E174" s="14"/>
       <c r="G174" s="14"/>
@@ -12605,10 +12608,10 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="B175" s="19" t="s">
         <v>755</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>756</v>
       </c>
       <c r="E175" s="14"/>
       <c r="G175" s="14"/>
@@ -12616,10 +12619,10 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="B176" s="19" t="s">
         <v>757</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>758</v>
       </c>
       <c r="E176" s="14"/>
       <c r="G176" s="14"/>
@@ -12627,10 +12630,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="B177" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>760</v>
       </c>
       <c r="E177" s="14"/>
       <c r="G177" s="14"/>
@@ -12638,10 +12641,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="B178" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>762</v>
       </c>
       <c r="E178" s="14"/>
       <c r="G178" s="14"/>
@@ -12649,10 +12652,10 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="B179" s="19" t="s">
         <v>763</v>
-      </c>
-      <c r="B179" s="19" t="s">
-        <v>764</v>
       </c>
       <c r="E179" s="14"/>
       <c r="G179" s="14"/>
@@ -12660,10 +12663,10 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B180" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="B180" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="E180" s="14"/>
       <c r="G180" s="14"/>
@@ -12671,10 +12674,10 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="B181" s="19" t="s">
         <v>767</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>768</v>
       </c>
       <c r="E181" s="14"/>
       <c r="G181" s="14"/>
@@ -12682,10 +12685,10 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="B182" s="19" t="s">
         <v>769</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>770</v>
       </c>
       <c r="E182" s="14"/>
       <c r="G182" s="14"/>
@@ -12693,10 +12696,10 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="B183" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>772</v>
       </c>
       <c r="E183" s="14"/>
       <c r="G183" s="14"/>
@@ -12704,10 +12707,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="B184" s="19" t="s">
         <v>773</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>774</v>
       </c>
       <c r="E184" s="14"/>
       <c r="G184" s="14"/>
@@ -12715,10 +12718,10 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="B185" s="33" t="s">
         <v>775</v>
-      </c>
-      <c r="B185" s="33" t="s">
-        <v>776</v>
       </c>
       <c r="E185" s="14"/>
       <c r="G185" s="14"/>
@@ -12726,10 +12729,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="B186" s="33" t="s">
         <v>777</v>
-      </c>
-      <c r="B186" s="33" t="s">
-        <v>778</v>
       </c>
       <c r="E186" s="14"/>
       <c r="G186" s="14"/>
@@ -12737,10 +12740,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="B187" s="33" t="s">
         <v>779</v>
-      </c>
-      <c r="B187" s="33" t="s">
-        <v>780</v>
       </c>
       <c r="E187" s="14"/>
       <c r="G187" s="14"/>
@@ -12748,10 +12751,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="B188" s="33" t="s">
         <v>781</v>
-      </c>
-      <c r="B188" s="33" t="s">
-        <v>782</v>
       </c>
       <c r="E188" s="14"/>
       <c r="G188" s="14"/>
@@ -12759,10 +12762,10 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="B189" s="33" t="s">
         <v>783</v>
-      </c>
-      <c r="B189" s="33" t="s">
-        <v>784</v>
       </c>
       <c r="E189" s="14"/>
       <c r="G189" s="14"/>
@@ -12770,10 +12773,10 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="B190" s="33" t="s">
         <v>785</v>
-      </c>
-      <c r="B190" s="33" t="s">
-        <v>786</v>
       </c>
       <c r="E190" s="14"/>
       <c r="G190" s="14"/>
@@ -17712,36 +17715,36 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="89" t="s">
+        <v>786</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="90" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>789</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="91" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>792</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -17752,41 +17755,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>796</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="92" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18"/>
       <c r="B13" s="93" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="94" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="96" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -17795,18 +17798,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>803</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>805</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -17838,20 +17841,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="99" t="s">
-        <v>807</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="103" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="104"/>
+      <c r="G1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="100"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -17875,34 +17878,34 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -17925,34 +17928,34 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" s="97" t="s">
+        <v>807</v>
+      </c>
+      <c r="E5" s="98" t="s">
         <v>808</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="F5" s="98" t="s">
         <v>809</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="G5" s="98" t="s">
         <v>810</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="H5" s="98" t="s">
         <v>811</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="I5" s="97" t="s">
         <v>812</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="J5" s="97" t="s">
         <v>813</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -17984,73 +17987,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>824</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>826</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>828</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>830</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -18077,33 +18080,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>834</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -18130,17 +18133,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -18167,17 +18170,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="106" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,24 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Resources" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Legend" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Ex sample data" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Ex Controlled List of Roles (CL" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Ex Controlled List for Organisa" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="CL3 (at-vocnuts)" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="CL4 (at-voccountry)" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="CL6 (at-vocmain-activity)" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="CL7 (at-voccpv)" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="CL8 (at-voccontract-nature)" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="CL9 (at-voccurrency)" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Questions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="RML_Modules" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Ex sample data" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Ex Controlled List of Roles (CL" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Ex Controlled List for Organisa" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CL3 (at-vocnuts)" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="CL4 (at-voccountry)" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="CL5 (at-vocbuyer-legal-type)" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CL6 (at-vocmain-activity)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="CL7 (at-voccpv)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="CL8 (at-voccontract-nature)" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="CL9 (at-voccurrency)" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Questions" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -380,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="628">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -5020,6 +5021,45 @@
   </si>
   <si>
     <t xml:space="preserve">award_criterion_type.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical_mapping_F03.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first file listed should always be the main file (i.e. the "entry point" specific to a form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contracting_authority.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procedure.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award_of_contract.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complementary_information.rml.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section 6</t>
   </si>
   <si>
     <t xml:space="preserve">Property path</t>
@@ -5455,7 +5495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5696,6 +5736,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5868,7 +5916,7 @@
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.67"/>
@@ -6014,8 +6062,8 @@
     <hyperlink ref="C7" r:id="rId2" display="semantic version, https://semver.org/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6034,24 +6082,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6059,8 +6107,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6079,24 +6127,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6104,8 +6152,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6124,24 +6172,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6149,8 +6197,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6169,24 +6217,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6194,8 +6242,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6214,24 +6262,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6239,8 +6287,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6253,21 +6301,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6282,13 +6375,13 @@
   </sheetPr>
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G154" activeCellId="0" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.87"/>
   </cols>
@@ -13768,8 +13861,8 @@
     <hyperlink ref="H102" r:id="rId13" display="?this epo:hasNonAwardJustification &lt;http://publications.europa.eu/resource/authority/non-award-justification/other&gt; ."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13789,7 +13882,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
@@ -13843,8 +13936,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13857,85 +13950,165 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>579</v>
+      <c r="A2" s="62" t="s">
+        <v>592</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
-        <v>581</v>
+      <c r="A3" s="63" t="s">
+        <v>594</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
-        <v>583</v>
+      <c r="A4" s="64" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>584</v>
+      <c r="A8" s="65" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>585</v>
+      <c r="A9" s="65" t="s">
+        <v>598</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="64" t="s">
-        <v>587</v>
+      <c r="B10" s="66" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
-      <c r="B11" s="65" t="s">
-        <v>588</v>
+      <c r="B11" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="66" t="s">
-        <v>589</v>
+      <c r="B12" s="68" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="67" t="s">
-        <v>590</v>
+      <c r="B13" s="69" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="68" t="s">
-        <v>591</v>
+      <c r="B14" s="70" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="s">
-        <v>592</v>
+      <c r="A16" s="65" t="s">
+        <v>605</v>
       </c>
       <c r="B16" s="44"/>
     </row>
@@ -13946,17 +14119,17 @@
       <c r="B18" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="s">
-        <v>593</v>
+      <c r="A20" s="65" t="s">
+        <v>606</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13964,7 +14137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13975,7 +14148,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14076,35 +14249,35 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>595</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>596</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>597</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>598</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>599</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>600</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>601</v>
+      <c r="D5" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>609</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>611</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>612</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>613</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,77 +14290,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14200,46 +14304,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>612</v>
+      <c r="A3" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>614</v>
+      <c r="A4" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -14247,8 +14359,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14261,30 +14373,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -14292,8 +14420,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14312,24 +14440,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>604</v>
+      <c r="A2" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -14337,8 +14465,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="627">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Mapping Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0.0</t>
+    <t xml:space="preserve">1.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">semantic version, https://semver.org/</t>
@@ -4832,9 +4832,6 @@
   </si>
   <si>
     <t xml:space="preserve">No tenders or no suitable tenders/requests to participate in response to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
   </si>
   <si>
     <r>
@@ -5912,11 +5909,11 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.67"/>
@@ -6062,8 +6059,8 @@
     <hyperlink ref="C7" r:id="rId2" display="semantic version, https://semver.org/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6082,7 +6079,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6090,16 +6087,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6107,8 +6104,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6127,7 +6124,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6135,16 +6132,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6152,8 +6149,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6172,7 +6169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6180,16 +6177,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6197,8 +6194,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6217,7 +6214,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6225,16 +6222,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6242,8 +6239,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6262,7 +6259,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6270,16 +6267,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6287,8 +6284,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6307,7 +6304,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6315,16 +6312,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6332,8 +6329,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6352,15 +6349,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6381,7 +6378,7 @@
       <selection pane="bottomLeft" activeCell="G154" activeCellId="0" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.87"/>
   </cols>
@@ -9556,19 +9553,19 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="22" t="s">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>313</v>
       </c>
       <c r="E173" s="2"/>
       <c r="H173" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>322</v>
@@ -9578,170 +9575,170 @@
     </row>
     <row r="175" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="E175" s="2"/>
       <c r="H175" s="47"/>
     </row>
     <row r="176" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="E176" s="2"/>
       <c r="H176" s="47"/>
     </row>
     <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="E177" s="2"/>
       <c r="H177" s="47"/>
     </row>
     <row r="178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="E178" s="2"/>
       <c r="H178" s="47"/>
     </row>
     <row r="179" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="E179" s="2"/>
       <c r="H179" s="47"/>
     </row>
     <row r="180" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="E180" s="2"/>
       <c r="H180" s="47"/>
     </row>
     <row r="181" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="E181" s="2"/>
       <c r="H181" s="47"/>
     </row>
     <row r="182" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="E182" s="2"/>
       <c r="H182" s="47"/>
     </row>
     <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="E183" s="2"/>
       <c r="H183" s="47"/>
     </row>
     <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="E184" s="2"/>
       <c r="H184" s="47"/>
     </row>
     <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="E185" s="2"/>
       <c r="H185" s="47"/>
     </row>
     <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="E186" s="2"/>
       <c r="H186" s="47"/>
     </row>
     <row r="187" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="E187" s="2"/>
       <c r="H187" s="47"/>
     </row>
     <row r="188" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="E188" s="2"/>
       <c r="H188" s="47"/>
     </row>
     <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E189" s="2"/>
       <c r="H189" s="47"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E190" s="2"/>
       <c r="H190" s="47"/>
     </row>
     <row r="191" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="E191" s="2"/>
       <c r="H191" s="47"/>
@@ -13861,8 +13858,8 @@
     <hyperlink ref="H102" r:id="rId13" display="?this epo:hasNonAwardJustification &lt;http://publications.europa.eu/resource/authority/non-award-justification/other&gt; ."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13882,62 +13879,62 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13952,75 +13949,78 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="60" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>580</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>582</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>584</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>586</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>588</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>590</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14036,7 +14036,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -14044,62 +14044,62 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="63" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="66" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
       <c r="B11" s="67" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="69" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="70" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14108,7 +14108,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="65" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16" s="44"/>
     </row>
@@ -14120,16 +14120,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="65" t="s">
+        <v>605</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>606</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14148,7 +14148,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14259,25 +14259,25 @@
         <v>66</v>
       </c>
       <c r="D5" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>608</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="F5" s="72" t="s">
         <v>609</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="G5" s="72" t="s">
         <v>610</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="H5" s="73" t="s">
         <v>611</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="I5" s="71" t="s">
         <v>612</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="J5" s="72" t="s">
         <v>613</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14290,8 +14290,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14310,7 +14310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -14318,40 +14318,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -14359,8 +14359,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14379,7 +14379,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14387,32 +14387,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -14420,8 +14420,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14440,7 +14440,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14448,16 +14448,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>616</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -14465,8 +14465,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="617">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -5023,40 +5023,10 @@
     <t xml:space="preserve">Comment (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">technical_mapping_F03.rml.ttl</t>
+    <t xml:space="preserve">mappings.rml.ttl</t>
   </si>
   <si>
     <t xml:space="preserve">The first file listed should always be the main file (i.e. the "entry point" specific to a form)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contracting_authority.rml.ttl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object.rml.ttl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procedure.rml.ttl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">award_of_contract.rml.ttl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complementary_information.rml.ttl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section 6</t>
   </si>
   <si>
     <t xml:space="preserve">Property path</t>
@@ -5909,11 +5879,11 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.67"/>
@@ -6076,10 +6046,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6087,16 +6057,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6121,10 +6091,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6132,16 +6102,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6166,10 +6136,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6177,16 +6147,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6211,10 +6181,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6222,16 +6192,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6256,10 +6226,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6267,16 +6237,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6301,10 +6271,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -6312,16 +6282,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6346,10 +6316,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -6375,10 +6345,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G154" activeCellId="0" sqref="G154"/>
+      <selection pane="bottomLeft" activeCell="G154" activeCellId="1" sqref="A3:C7 G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.87"/>
   </cols>
@@ -13876,10 +13846,10 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A3:C7 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.79"/>
   </cols>
@@ -13949,11 +13919,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
   </cols>
@@ -13975,44 +13945,24 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>582</v>
-      </c>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
-        <v>583</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>584</v>
-      </c>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>586</v>
-      </c>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>588</v>
-      </c>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>589</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>590</v>
-      </c>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14033,10 +13983,10 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
@@ -14044,62 +13994,62 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="62" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="63" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="65" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="65" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="66" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
       <c r="B11" s="67" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="68" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="69" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="70" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14108,7 +14058,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="65" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B16" s="44"/>
     </row>
@@ -14120,10 +14070,10 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="65" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -14145,10 +14095,10 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
@@ -14259,25 +14209,25 @@
         <v>66</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14307,10 +14257,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -14318,40 +14268,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -14376,10 +14326,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14387,32 +14337,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -14437,10 +14387,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
@@ -14448,16 +14398,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -829,7 +829,7 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Package F03</t>
+    <t xml:space="preserve">Package F03 Test</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -6732,428 +6732,400 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7267,7 +7239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7276,106 +7248,106 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="12" t="n">
@@ -7386,2968 +7358,2968 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="3"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="3"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="3"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="3"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="3"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="3"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="3"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="3"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="3"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="3"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="3"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="3"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="3"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="3"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="3"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="3"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="3"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="3"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="3"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="3"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="3"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="3"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="3"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="3"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="3"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="3"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="3"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="3"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="3"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="3"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="3"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="3"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="3"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="3"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="3"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="3"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="3"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="3"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="3"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="3"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="3"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="3"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="3"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="3"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="3"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="3"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="3"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="3"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="3"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="3"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="3"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="3"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="3"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="3"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="3"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="3"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="3"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="3"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="3"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="3"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="3"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="3"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="3"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="3"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="3"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="3"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="3"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="3"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="3"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="3"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="3"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="3"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="3"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="3"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="3"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="3"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="3"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="3"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="3"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="3"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="3"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="3"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="3"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="3"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="3"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="3"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="3"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="3"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="3"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="3"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="3"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="3"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="3"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="3"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="3"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="3"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="3"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="3"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="3"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="3"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="3"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="3"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="3"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="3"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="3"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="3"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="3"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="3"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="3"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="3"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="3"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="3"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="3"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="3"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="3"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="3"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="3"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="3"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="3"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="3"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="3"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="3"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="3"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="3"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="3"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="3"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="3"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="3"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="3"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="3"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="3"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="3"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="3"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="3"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="3"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="3"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="3"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="3"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="3"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="3"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="3"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="3"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="3"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="3"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="3"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="3"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="3"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="3"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="3"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="3"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="3"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="3"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="3"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="3"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="3"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="3"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="3"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="3"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="3"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="3"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="3"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="3"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="3"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="3"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="3"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="3"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="3"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="3"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="3"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="3"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="3"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="3"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="3"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="3"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="3"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="3"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="3"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="3"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="3"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="3"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="3"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="3"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="3"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="3"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="3"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="3"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="3"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="3"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="3"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="3"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="3"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="3"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="3"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="3"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="3"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="3"/>
+      <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="3"/>
+      <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="3"/>
+      <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="3"/>
+      <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="3"/>
+      <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="3"/>
+      <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="3"/>
+      <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="3"/>
+      <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="3"/>
+      <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="3"/>
+      <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="3"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="3"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="3"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="3"/>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="3"/>
+      <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="3"/>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="3"/>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="3"/>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="3"/>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="3"/>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="3"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="3"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="3"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="3"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="3"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="3"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="3"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="3"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="3"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="3"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="3"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="3"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="3"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="3"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="3"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="3"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="3"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="3"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="3"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="3"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="3"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="3"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="3"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="3"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="3"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="3"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="3"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="3"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="3"/>
+      <c r="C343" s="4"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="3"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="3"/>
+      <c r="C345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="3"/>
+      <c r="C346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="3"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="3"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="3"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="3"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="3"/>
+      <c r="C351" s="4"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="3"/>
+      <c r="C352" s="4"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="3"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="3"/>
+      <c r="C354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="3"/>
+      <c r="C355" s="4"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="3"/>
+      <c r="C356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="3"/>
+      <c r="C357" s="4"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="3"/>
+      <c r="C358" s="4"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="3"/>
+      <c r="C359" s="4"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="3"/>
+      <c r="C360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="3"/>
+      <c r="C361" s="4"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="3"/>
+      <c r="C362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="3"/>
+      <c r="C363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="3"/>
+      <c r="C364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="3"/>
+      <c r="C365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="3"/>
+      <c r="C366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="3"/>
+      <c r="C367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="3"/>
+      <c r="C368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="3"/>
+      <c r="C369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="3"/>
+      <c r="C370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="3"/>
+      <c r="C371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="3"/>
+      <c r="C372" s="4"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="3"/>
+      <c r="C373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="3"/>
+      <c r="C374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="3"/>
+      <c r="C375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="3"/>
+      <c r="C376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="3"/>
+      <c r="C377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="3"/>
+      <c r="C378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="3"/>
+      <c r="C379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="3"/>
+      <c r="C380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="3"/>
+      <c r="C381" s="4"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="3"/>
+      <c r="C382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="3"/>
+      <c r="C383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="3"/>
+      <c r="C384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="3"/>
+      <c r="C385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="3"/>
+      <c r="C386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="3"/>
+      <c r="C387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="3"/>
+      <c r="C388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="3"/>
+      <c r="C389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="3"/>
+      <c r="C390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="3"/>
+      <c r="C391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="3"/>
+      <c r="C392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="3"/>
+      <c r="C393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="3"/>
+      <c r="C394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="3"/>
+      <c r="C395" s="4"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="3"/>
+      <c r="C396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="3"/>
+      <c r="C397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="3"/>
+      <c r="C398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="3"/>
+      <c r="C399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="3"/>
+      <c r="C400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="3"/>
+      <c r="C401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="3"/>
+      <c r="C402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="3"/>
+      <c r="C403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="3"/>
+      <c r="C404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="3"/>
+      <c r="C405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="3"/>
+      <c r="C406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="3"/>
+      <c r="C407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="3"/>
+      <c r="C408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="3"/>
+      <c r="C409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="3"/>
+      <c r="C410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="3"/>
+      <c r="C411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="3"/>
+      <c r="C412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="3"/>
+      <c r="C413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="3"/>
+      <c r="C414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="3"/>
+      <c r="C415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="3"/>
+      <c r="C416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="3"/>
+      <c r="C417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="3"/>
+      <c r="C418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="3"/>
+      <c r="C419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="3"/>
+      <c r="C420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="3"/>
+      <c r="C421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="3"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="3"/>
+      <c r="C423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="3"/>
+      <c r="C424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="3"/>
+      <c r="C425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="3"/>
+      <c r="C426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="3"/>
+      <c r="C427" s="4"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="3"/>
+      <c r="C428" s="4"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="3"/>
+      <c r="C429" s="4"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="3"/>
+      <c r="C430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="3"/>
+      <c r="C431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="3"/>
+      <c r="C432" s="4"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="3"/>
+      <c r="C433" s="4"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="3"/>
+      <c r="C434" s="4"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="3"/>
+      <c r="C435" s="4"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="3"/>
+      <c r="C436" s="4"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="3"/>
+      <c r="C437" s="4"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="3"/>
+      <c r="C438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="3"/>
+      <c r="C439" s="4"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="3"/>
+      <c r="C440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="3"/>
+      <c r="C441" s="4"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="3"/>
+      <c r="C442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="3"/>
+      <c r="C443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="3"/>
+      <c r="C444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="3"/>
+      <c r="C445" s="4"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="3"/>
+      <c r="C446" s="4"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="3"/>
+      <c r="C447" s="4"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="3"/>
+      <c r="C448" s="4"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="3"/>
+      <c r="C449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="3"/>
+      <c r="C450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="3"/>
+      <c r="C451" s="4"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="3"/>
+      <c r="C452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="3"/>
+      <c r="C453" s="4"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="3"/>
+      <c r="C454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="3"/>
+      <c r="C455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="3"/>
+      <c r="C456" s="4"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="3"/>
+      <c r="C457" s="4"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="3"/>
+      <c r="C458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="3"/>
+      <c r="C459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="3"/>
+      <c r="C460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="3"/>
+      <c r="C461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="3"/>
+      <c r="C462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="3"/>
+      <c r="C463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="3"/>
+      <c r="C464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="3"/>
+      <c r="C465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="3"/>
+      <c r="C466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="3"/>
+      <c r="C467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="3"/>
+      <c r="C468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="3"/>
+      <c r="C469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="3"/>
+      <c r="C470" s="4"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="3"/>
+      <c r="C471" s="4"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="3"/>
+      <c r="C472" s="4"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="3"/>
+      <c r="C473" s="4"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="3"/>
+      <c r="C474" s="4"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="3"/>
+      <c r="C475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="3"/>
+      <c r="C476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="3"/>
+      <c r="C477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="3"/>
+      <c r="C478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="3"/>
+      <c r="C479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="3"/>
+      <c r="C480" s="4"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="3"/>
+      <c r="C481" s="4"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="3"/>
+      <c r="C482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="3"/>
+      <c r="C483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="3"/>
+      <c r="C484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="3"/>
+      <c r="C485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="3"/>
+      <c r="C486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="3"/>
+      <c r="C487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="3"/>
+      <c r="C488" s="4"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="3"/>
+      <c r="C489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="3"/>
+      <c r="C490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="3"/>
+      <c r="C491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="3"/>
+      <c r="C492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="3"/>
+      <c r="C493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="3"/>
+      <c r="C494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="3"/>
+      <c r="C495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="3"/>
+      <c r="C496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="3"/>
+      <c r="C497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="3"/>
+      <c r="C498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="3"/>
+      <c r="C499" s="4"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="3"/>
+      <c r="C500" s="4"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="3"/>
+      <c r="C501" s="4"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="3"/>
+      <c r="C502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="3"/>
+      <c r="C503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="3"/>
+      <c r="C504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="3"/>
+      <c r="C505" s="4"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="3"/>
+      <c r="C506" s="4"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="3"/>
+      <c r="C507" s="4"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="3"/>
+      <c r="C508" s="4"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="3"/>
+      <c r="C509" s="4"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="3"/>
+      <c r="C510" s="4"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="3"/>
+      <c r="C511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="3"/>
+      <c r="C512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="3"/>
+      <c r="C513" s="4"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="3"/>
+      <c r="C514" s="4"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="3"/>
+      <c r="C515" s="4"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="3"/>
+      <c r="C516" s="4"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="3"/>
+      <c r="C517" s="4"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="3"/>
+      <c r="C518" s="4"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="3"/>
+      <c r="C519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="3"/>
+      <c r="C520" s="4"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="3"/>
+      <c r="C521" s="4"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="3"/>
+      <c r="C522" s="4"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="3"/>
+      <c r="C523" s="4"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="3"/>
+      <c r="C524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="3"/>
+      <c r="C525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="3"/>
+      <c r="C526" s="4"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="3"/>
+      <c r="C527" s="4"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="3"/>
+      <c r="C528" s="4"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="3"/>
+      <c r="C529" s="4"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="3"/>
+      <c r="C530" s="4"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="3"/>
+      <c r="C531" s="4"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="3"/>
+      <c r="C532" s="4"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="3"/>
+      <c r="C533" s="4"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="3"/>
+      <c r="C534" s="4"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="3"/>
+      <c r="C535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="3"/>
+      <c r="C536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="3"/>
+      <c r="C537" s="4"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="3"/>
+      <c r="C538" s="4"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="3"/>
+      <c r="C539" s="4"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="3"/>
+      <c r="C540" s="4"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="3"/>
+      <c r="C541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="3"/>
+      <c r="C542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="3"/>
+      <c r="C543" s="4"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="3"/>
+      <c r="C544" s="4"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="3"/>
+      <c r="C545" s="4"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="3"/>
+      <c r="C546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="3"/>
+      <c r="C547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="3"/>
+      <c r="C548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="3"/>
+      <c r="C549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="3"/>
+      <c r="C550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="3"/>
+      <c r="C551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="3"/>
+      <c r="C552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="3"/>
+      <c r="C553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="3"/>
+      <c r="C554" s="4"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="3"/>
+      <c r="C555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="3"/>
+      <c r="C556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="3"/>
+      <c r="C557" s="4"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="3"/>
+      <c r="C558" s="4"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="3"/>
+      <c r="C559" s="4"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="3"/>
+      <c r="C560" s="4"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="3"/>
+      <c r="C561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="3"/>
+      <c r="C562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="3"/>
+      <c r="C563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="3"/>
+      <c r="C564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="3"/>
+      <c r="C565" s="4"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="3"/>
+      <c r="C566" s="4"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="3"/>
+      <c r="C567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="3"/>
+      <c r="C568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="3"/>
+      <c r="C569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="3"/>
+      <c r="C570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="3"/>
+      <c r="C571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="3"/>
+      <c r="C572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="3"/>
+      <c r="C573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="3"/>
+      <c r="C574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="3"/>
+      <c r="C575" s="4"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="3"/>
+      <c r="C576" s="4"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="3"/>
+      <c r="C577" s="4"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="3"/>
+      <c r="C578" s="4"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="3"/>
+      <c r="C579" s="4"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="3"/>
+      <c r="C580" s="4"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="3"/>
+      <c r="C581" s="4"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="3"/>
+      <c r="C582" s="4"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="3"/>
+      <c r="C583" s="4"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="3"/>
+      <c r="C584" s="4"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="3"/>
+      <c r="C585" s="4"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="3"/>
+      <c r="C586" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="3"/>
+      <c r="C587" s="4"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="3"/>
+      <c r="C588" s="4"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="3"/>
+      <c r="C589" s="4"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="3"/>
+      <c r="C590" s="4"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="3"/>
+      <c r="C591" s="4"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="3"/>
+      <c r="C592" s="4"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="3"/>
+      <c r="C593" s="4"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="3"/>
+      <c r="C594" s="4"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="3"/>
+      <c r="C595" s="4"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="3"/>
+      <c r="C596" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="3"/>
+      <c r="C597" s="4"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="3"/>
+      <c r="C598" s="4"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="3"/>
+      <c r="C599" s="4"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="3"/>
+      <c r="C600" s="4"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="3"/>
+      <c r="C601" s="4"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="3"/>
+      <c r="C602" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="3"/>
+      <c r="C603" s="4"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="3"/>
+      <c r="C604" s="4"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="3"/>
+      <c r="C605" s="4"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="3"/>
+      <c r="C606" s="4"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="3"/>
+      <c r="C607" s="4"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="3"/>
+      <c r="C608" s="4"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="3"/>
+      <c r="C609" s="4"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="3"/>
+      <c r="C610" s="4"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="3"/>
+      <c r="C611" s="4"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="3"/>
+      <c r="C612" s="4"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="3"/>
+      <c r="C613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="3"/>
+      <c r="C614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="3"/>
+      <c r="C615" s="4"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="3"/>
+      <c r="C616" s="4"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="3"/>
+      <c r="C617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="3"/>
+      <c r="C618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="3"/>
+      <c r="C619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="3"/>
+      <c r="C620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="3"/>
+      <c r="C621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="3"/>
+      <c r="C622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="3"/>
+      <c r="C623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="3"/>
+      <c r="C624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="3"/>
+      <c r="C625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="3"/>
+      <c r="C626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="3"/>
+      <c r="C627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="3"/>
+      <c r="C628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="3"/>
+      <c r="C629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="3"/>
+      <c r="C630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="3"/>
+      <c r="C631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="3"/>
+      <c r="C632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="3"/>
+      <c r="C633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="3"/>
+      <c r="C634" s="4"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="3"/>
+      <c r="C635" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="3"/>
+      <c r="C636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="3"/>
+      <c r="C637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="3"/>
+      <c r="C638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="3"/>
+      <c r="C639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="3"/>
+      <c r="C640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="3"/>
+      <c r="C641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="3"/>
+      <c r="C642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="3"/>
+      <c r="C643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="3"/>
+      <c r="C644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="3"/>
+      <c r="C645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="3"/>
+      <c r="C646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="3"/>
+      <c r="C647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="3"/>
+      <c r="C648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="3"/>
+      <c r="C649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="3"/>
+      <c r="C650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="3"/>
+      <c r="C651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="3"/>
+      <c r="C652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="3"/>
+      <c r="C653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="3"/>
+      <c r="C654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="3"/>
+      <c r="C655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="3"/>
+      <c r="C656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="3"/>
+      <c r="C657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="3"/>
+      <c r="C658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="3"/>
+      <c r="C659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="3"/>
+      <c r="C660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="3"/>
+      <c r="C661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="3"/>
+      <c r="C662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="3"/>
+      <c r="C663" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="3"/>
+      <c r="C664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="3"/>
+      <c r="C665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="3"/>
+      <c r="C666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="3"/>
+      <c r="C667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="3"/>
+      <c r="C668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="3"/>
+      <c r="C669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="3"/>
+      <c r="C670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="3"/>
+      <c r="C671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="3"/>
+      <c r="C672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="3"/>
+      <c r="C673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="3"/>
+      <c r="C674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="3"/>
+      <c r="C675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="3"/>
+      <c r="C676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="3"/>
+      <c r="C677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="3"/>
+      <c r="C678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="3"/>
+      <c r="C679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="3"/>
+      <c r="C680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="3"/>
+      <c r="C681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="3"/>
+      <c r="C682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="3"/>
+      <c r="C683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="3"/>
+      <c r="C684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="3"/>
+      <c r="C685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="3"/>
+      <c r="C686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="3"/>
+      <c r="C687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="3"/>
+      <c r="C688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="3"/>
+      <c r="C689" s="4"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="3"/>
+      <c r="C690" s="4"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="3"/>
+      <c r="C691" s="4"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="3"/>
+      <c r="C692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="3"/>
+      <c r="C693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="3"/>
+      <c r="C694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="3"/>
+      <c r="C695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="3"/>
+      <c r="C696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="3"/>
+      <c r="C697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="3"/>
+      <c r="C698" s="4"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="3"/>
+      <c r="C699" s="4"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="3"/>
+      <c r="C700" s="4"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="3"/>
+      <c r="C701" s="4"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="3"/>
+      <c r="C702" s="4"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="3"/>
+      <c r="C703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="3"/>
+      <c r="C704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="3"/>
+      <c r="C705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="3"/>
+      <c r="C706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="3"/>
+      <c r="C707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="3"/>
+      <c r="C708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="3"/>
+      <c r="C709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="3"/>
+      <c r="C710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="3"/>
+      <c r="C711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="3"/>
+      <c r="C712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="3"/>
+      <c r="C713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="3"/>
+      <c r="C714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="3"/>
+      <c r="C715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="3"/>
+      <c r="C716" s="4"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="3"/>
+      <c r="C717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="3"/>
+      <c r="C718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="3"/>
+      <c r="C719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="3"/>
+      <c r="C720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="3"/>
+      <c r="C721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="3"/>
+      <c r="C722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="3"/>
+      <c r="C723" s="4"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="3"/>
+      <c r="C724" s="4"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="3"/>
+      <c r="C725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="3"/>
+      <c r="C726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="3"/>
+      <c r="C727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="3"/>
+      <c r="C728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="3"/>
+      <c r="C729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="3"/>
+      <c r="C730" s="4"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="3"/>
+      <c r="C731" s="4"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="3"/>
+      <c r="C732" s="4"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="3"/>
+      <c r="C733" s="4"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="3"/>
+      <c r="C734" s="4"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="3"/>
+      <c r="C735" s="4"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="3"/>
+      <c r="C736" s="4"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="3"/>
+      <c r="C737" s="4"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="3"/>
+      <c r="C738" s="4"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="3"/>
+      <c r="C739" s="4"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="3"/>
+      <c r="C740" s="4"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="3"/>
+      <c r="C741" s="4"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="3"/>
+      <c r="C742" s="4"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="3"/>
+      <c r="C743" s="4"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="3"/>
+      <c r="C744" s="4"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="3"/>
+      <c r="C745" s="4"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="3"/>
+      <c r="C746" s="4"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="3"/>
+      <c r="C747" s="4"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="3"/>
+      <c r="C748" s="4"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="3"/>
+      <c r="C749" s="4"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="3"/>
+      <c r="C750" s="4"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="3"/>
+      <c r="C751" s="4"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="3"/>
+      <c r="C752" s="4"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="3"/>
+      <c r="C753" s="4"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="3"/>
+      <c r="C754" s="4"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="3"/>
+      <c r="C755" s="4"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="3"/>
+      <c r="C756" s="4"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="3"/>
+      <c r="C757" s="4"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="3"/>
+      <c r="C758" s="4"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="3"/>
+      <c r="C759" s="4"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="3"/>
+      <c r="C760" s="4"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="3"/>
+      <c r="C761" s="4"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="3"/>
+      <c r="C762" s="4"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="3"/>
+      <c r="C763" s="4"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="3"/>
+      <c r="C764" s="4"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="3"/>
+      <c r="C765" s="4"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="3"/>
+      <c r="C766" s="4"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="3"/>
+      <c r="C767" s="4"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="3"/>
+      <c r="C768" s="4"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="3"/>
+      <c r="C769" s="4"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="3"/>
+      <c r="C770" s="4"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="3"/>
+      <c r="C771" s="4"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="3"/>
+      <c r="C772" s="4"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="3"/>
+      <c r="C773" s="4"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="3"/>
+      <c r="C774" s="4"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="3"/>
+      <c r="C775" s="4"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="3"/>
+      <c r="C776" s="4"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="3"/>
+      <c r="C777" s="4"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="3"/>
+      <c r="C778" s="4"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="3"/>
+      <c r="C779" s="4"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="3"/>
+      <c r="C780" s="4"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="3"/>
+      <c r="C781" s="4"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="3"/>
+      <c r="C782" s="4"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="3"/>
+      <c r="C783" s="4"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="3"/>
+      <c r="C784" s="4"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="3"/>
+      <c r="C785" s="4"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="3"/>
+      <c r="C786" s="4"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="3"/>
+      <c r="C787" s="4"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="3"/>
+      <c r="C788" s="4"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="3"/>
+      <c r="C789" s="4"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="3"/>
+      <c r="C790" s="4"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="3"/>
+      <c r="C791" s="4"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="3"/>
+      <c r="C792" s="4"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="3"/>
+      <c r="C793" s="4"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="3"/>
+      <c r="C794" s="4"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="3"/>
+      <c r="C795" s="4"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="3"/>
+      <c r="C796" s="4"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="3"/>
+      <c r="C797" s="4"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="3"/>
+      <c r="C798" s="4"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="3"/>
+      <c r="C799" s="4"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="3"/>
+      <c r="C800" s="4"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="3"/>
+      <c r="C801" s="4"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="3"/>
+      <c r="C802" s="4"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="3"/>
+      <c r="C803" s="4"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="3"/>
+      <c r="C804" s="4"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="3"/>
+      <c r="C805" s="4"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="3"/>
+      <c r="C806" s="4"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="3"/>
+      <c r="C807" s="4"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="3"/>
+      <c r="C808" s="4"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="3"/>
+      <c r="C809" s="4"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="3"/>
+      <c r="C810" s="4"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="3"/>
+      <c r="C811" s="4"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="3"/>
+      <c r="C812" s="4"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="3"/>
+      <c r="C813" s="4"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="3"/>
+      <c r="C814" s="4"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="3"/>
+      <c r="C815" s="4"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="3"/>
+      <c r="C816" s="4"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="3"/>
+      <c r="C817" s="4"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="3"/>
+      <c r="C818" s="4"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="3"/>
+      <c r="C819" s="4"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="3"/>
+      <c r="C820" s="4"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="3"/>
+      <c r="C821" s="4"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="3"/>
+      <c r="C822" s="4"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="3"/>
+      <c r="C823" s="4"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="3"/>
+      <c r="C824" s="4"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="3"/>
+      <c r="C825" s="4"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="3"/>
+      <c r="C826" s="4"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="3"/>
+      <c r="C827" s="4"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="3"/>
+      <c r="C828" s="4"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="3"/>
+      <c r="C829" s="4"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="3"/>
+      <c r="C830" s="4"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="3"/>
+      <c r="C831" s="4"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="3"/>
+      <c r="C832" s="4"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="3"/>
+      <c r="C833" s="4"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="3"/>
+      <c r="C834" s="4"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="3"/>
+      <c r="C835" s="4"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="3"/>
+      <c r="C836" s="4"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="3"/>
+      <c r="C837" s="4"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="3"/>
+      <c r="C838" s="4"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="3"/>
+      <c r="C839" s="4"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="3"/>
+      <c r="C840" s="4"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="3"/>
+      <c r="C841" s="4"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="3"/>
+      <c r="C842" s="4"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="3"/>
+      <c r="C843" s="4"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="3"/>
+      <c r="C844" s="4"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="3"/>
+      <c r="C845" s="4"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="3"/>
+      <c r="C846" s="4"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="3"/>
+      <c r="C847" s="4"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="3"/>
+      <c r="C848" s="4"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="3"/>
+      <c r="C849" s="4"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="3"/>
+      <c r="C850" s="4"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="3"/>
+      <c r="C851" s="4"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="3"/>
+      <c r="C852" s="4"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="3"/>
+      <c r="C853" s="4"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="3"/>
+      <c r="C854" s="4"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="3"/>
+      <c r="C855" s="4"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="3"/>
+      <c r="C856" s="4"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="3"/>
+      <c r="C857" s="4"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="3"/>
+      <c r="C858" s="4"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="3"/>
+      <c r="C859" s="4"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="3"/>
+      <c r="C860" s="4"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="3"/>
+      <c r="C861" s="4"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="3"/>
+      <c r="C862" s="4"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="3"/>
+      <c r="C863" s="4"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="3"/>
+      <c r="C864" s="4"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="3"/>
+      <c r="C865" s="4"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="3"/>
+      <c r="C866" s="4"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="3"/>
+      <c r="C867" s="4"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="3"/>
+      <c r="C868" s="4"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="3"/>
+      <c r="C869" s="4"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="3"/>
+      <c r="C870" s="4"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="3"/>
+      <c r="C871" s="4"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="3"/>
+      <c r="C872" s="4"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="3"/>
+      <c r="C873" s="4"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="3"/>
+      <c r="C874" s="4"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="3"/>
+      <c r="C875" s="4"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="3"/>
+      <c r="C876" s="4"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="3"/>
+      <c r="C877" s="4"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="3"/>
+      <c r="C878" s="4"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="3"/>
+      <c r="C879" s="4"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="3"/>
+      <c r="C880" s="4"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="3"/>
+      <c r="C881" s="4"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="3"/>
+      <c r="C882" s="4"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="3"/>
+      <c r="C883" s="4"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="3"/>
+      <c r="C884" s="4"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="3"/>
+      <c r="C885" s="4"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="3"/>
+      <c r="C886" s="4"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="3"/>
+      <c r="C887" s="4"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="3"/>
+      <c r="C888" s="4"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="3"/>
+      <c r="C889" s="4"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="3"/>
+      <c r="C890" s="4"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="3"/>
+      <c r="C891" s="4"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="3"/>
+      <c r="C892" s="4"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="3"/>
+      <c r="C893" s="4"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="3"/>
+      <c r="C894" s="4"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="3"/>
+      <c r="C895" s="4"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="3"/>
+      <c r="C896" s="4"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="3"/>
+      <c r="C897" s="4"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="3"/>
+      <c r="C898" s="4"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="3"/>
+      <c r="C899" s="4"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="3"/>
+      <c r="C900" s="4"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="3"/>
+      <c r="C901" s="4"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="3"/>
+      <c r="C902" s="4"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="3"/>
+      <c r="C903" s="4"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="3"/>
+      <c r="C904" s="4"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="3"/>
+      <c r="C905" s="4"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="3"/>
+      <c r="C906" s="4"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="3"/>
+      <c r="C907" s="4"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="3"/>
+      <c r="C908" s="4"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="3"/>
+      <c r="C909" s="4"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="3"/>
+      <c r="C910" s="4"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="3"/>
+      <c r="C911" s="4"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="3"/>
+      <c r="C912" s="4"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="3"/>
+      <c r="C913" s="4"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="3"/>
+      <c r="C914" s="4"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="3"/>
+      <c r="C915" s="4"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="3"/>
+      <c r="C916" s="4"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="3"/>
+      <c r="C917" s="4"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="3"/>
+      <c r="C918" s="4"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="3"/>
+      <c r="C919" s="4"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="3"/>
+      <c r="C920" s="4"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="3"/>
+      <c r="C921" s="4"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="3"/>
+      <c r="C922" s="4"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="3"/>
+      <c r="C923" s="4"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="3"/>
+      <c r="C924" s="4"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="3"/>
+      <c r="C925" s="4"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="3"/>
+      <c r="C926" s="4"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="3"/>
+      <c r="C927" s="4"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="3"/>
+      <c r="C928" s="4"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="3"/>
+      <c r="C929" s="4"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="3"/>
+      <c r="C930" s="4"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="3"/>
+      <c r="C931" s="4"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="3"/>
+      <c r="C932" s="4"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="3"/>
+      <c r="C933" s="4"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="3"/>
+      <c r="C934" s="4"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="3"/>
+      <c r="C935" s="4"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="3"/>
+      <c r="C936" s="4"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="3"/>
+      <c r="C937" s="4"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="3"/>
+      <c r="C938" s="4"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="3"/>
+      <c r="C939" s="4"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="3"/>
+      <c r="C940" s="4"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="3"/>
+      <c r="C941" s="4"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="3"/>
+      <c r="C942" s="4"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="3"/>
+      <c r="C943" s="4"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="3"/>
+      <c r="C944" s="4"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="3"/>
+      <c r="C945" s="4"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="3"/>
+      <c r="C946" s="4"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="3"/>
+      <c r="C947" s="4"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="3"/>
+      <c r="C948" s="4"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="3"/>
+      <c r="C949" s="4"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="3"/>
+      <c r="C950" s="4"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="3"/>
+      <c r="C951" s="4"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="3"/>
+      <c r="C952" s="4"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="3"/>
+      <c r="C953" s="4"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="3"/>
+      <c r="C954" s="4"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="3"/>
+      <c r="C955" s="4"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="3"/>
+      <c r="C956" s="4"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="3"/>
+      <c r="C957" s="4"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="3"/>
+      <c r="C958" s="4"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="3"/>
+      <c r="C959" s="4"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="3"/>
+      <c r="C960" s="4"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="3"/>
+      <c r="C961" s="4"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="3"/>
+      <c r="C962" s="4"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="3"/>
+      <c r="C963" s="4"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="3"/>
+      <c r="C964" s="4"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="3"/>
+      <c r="C965" s="4"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="3"/>
+      <c r="C966" s="4"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="3"/>
+      <c r="C967" s="4"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="3"/>
+      <c r="C968" s="4"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="3"/>
+      <c r="C969" s="4"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="3"/>
+      <c r="C970" s="4"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="3"/>
+      <c r="C971" s="4"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="3"/>
+      <c r="C972" s="4"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="3"/>
+      <c r="C973" s="4"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="3"/>
+      <c r="C974" s="4"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="3"/>
+      <c r="C975" s="4"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="3"/>
+      <c r="C976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="3"/>
+      <c r="C977" s="4"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="3"/>
+      <c r="C978" s="4"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="3"/>
+      <c r="C979" s="4"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="3"/>
+      <c r="C980" s="4"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="3"/>
+      <c r="C981" s="4"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="3"/>
+      <c r="C982" s="4"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="3"/>
+      <c r="C983" s="4"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="3"/>
+      <c r="C984" s="4"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="3"/>
+      <c r="C985" s="4"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="3"/>
+      <c r="C986" s="4"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="3"/>
+      <c r="C987" s="4"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="3"/>
+      <c r="C988" s="4"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="3"/>
+      <c r="C989" s="4"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="3"/>
+      <c r="C990" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10356,8 +10328,8 @@
     <hyperlink ref="C11" r:id="rId4" location="gid=769953505" display="Stands for Standard Form F03, all directives, as per: https://docs.google.com/spreadsheets/d/1Nt1r-GVRxsZecDPWHa_xdNH8sfbv5Gr_/edit#gid=769953505"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10367,7 +10339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -10383,13 +10355,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="34.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="34.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="26.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10629,7 +10601,7 @@
       <c r="B8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -10804,7 +10776,7 @@
       <c r="C13" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -10937,8 +10909,8 @@
       <c r="B17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -11137,14 +11109,14 @@
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
@@ -11179,14 +11151,14 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
@@ -11195,7 +11167,7 @@
       <c r="B25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -11359,14 +11331,14 @@
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32" t="s">
@@ -11378,7 +11350,7 @@
       <c r="C30" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="18" t="s">
@@ -11511,8 +11483,8 @@
       <c r="B34" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="30" t="s">
@@ -11559,14 +11531,14 @@
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
@@ -11627,7 +11599,7 @@
       <c r="R37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>162</v>
       </c>
       <c r="B38" s="34" t="s">
@@ -11638,7 +11610,7 @@
       <c r="E38" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="40" t="s">
         <v>165</v>
       </c>
       <c r="G38" s="23" t="s">
@@ -11659,10 +11631,10 @@
       <c r="R38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -11693,10 +11665,10 @@
       <c r="R39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>176</v>
       </c>
       <c r="C40" s="30"/>
@@ -11705,7 +11677,7 @@
         <v>177</v>
       </c>
       <c r="F40" s="30"/>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>178</v>
       </c>
       <c r="H40" s="30" t="s">
@@ -11721,20 +11693,20 @@
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>176</v>
       </c>
       <c r="C41" s="30"/>
@@ -11742,7 +11714,7 @@
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="40" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="25" t="s">
@@ -11769,10 +11741,10 @@
       <c r="B42" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E42" s="18" t="s">
@@ -11799,8 +11771,8 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="25" t="s">
         <v>189</v>
       </c>
@@ -11832,7 +11804,7 @@
       <c r="C44" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E44" s="18" t="s">
@@ -11860,7 +11832,7 @@
       <c r="A45" s="32"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="25" t="s">
         <v>199</v>
       </c>
@@ -11914,9 +11886,9 @@
         <v>204</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
@@ -11940,13 +11912,13 @@
       <c r="C48" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="18" t="s">
         <v>208</v>
       </c>
@@ -11969,10 +11941,10 @@
       <c r="R48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -12001,14 +11973,14 @@
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="32" t="s">
@@ -12020,7 +11992,7 @@
       <c r="C50" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E50" s="18" t="s">
@@ -12045,7 +12017,7 @@
       <c r="R50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>225</v>
       </c>
       <c r="B51" s="34" t="s">
@@ -12171,7 +12143,7 @@
       <c r="R54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>245</v>
       </c>
       <c r="B55" s="34" t="s">
@@ -12180,15 +12152,15 @@
       <c r="C55" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="43" t="s">
+      <c r="D55" s="47"/>
+      <c r="E55" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
@@ -12234,7 +12206,7 @@
       <c r="A57" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="42" t="s">
         <v>256</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -12348,7 +12320,7 @@
       <c r="G60" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H60" s="49" t="s">
+      <c r="H60" s="48" t="s">
         <v>278</v>
       </c>
       <c r="I60" s="18"/>
@@ -12432,7 +12404,7 @@
       <c r="E63" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F63" s="49"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="23" t="s">
         <v>286</v>
       </c>
@@ -12466,7 +12438,7 @@
       <c r="E64" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F64" s="49"/>
+      <c r="F64" s="48"/>
       <c r="G64" s="23" t="s">
         <v>293</v>
       </c>
@@ -12493,8 +12465,8 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
@@ -12622,7 +12594,7 @@
       <c r="G69" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="H69" s="49" t="s">
+      <c r="H69" s="48" t="s">
         <v>311</v>
       </c>
       <c r="I69" s="18"/>
@@ -12690,7 +12662,7 @@
       <c r="G71" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>322</v>
       </c>
       <c r="I71" s="18"/>
@@ -12713,7 +12685,7 @@
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="52"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -12733,14 +12705,14 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="F73" s="49"/>
+      <c r="F73" s="48"/>
       <c r="G73" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I73" s="18"/>
@@ -12770,11 +12742,11 @@
       <c r="E74" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F74" s="49"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="H74" s="53" t="s">
+      <c r="H74" s="52" t="s">
         <v>333</v>
       </c>
       <c r="I74" s="18"/>
@@ -12789,7 +12761,7 @@
       <c r="R74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="53" t="s">
         <v>334</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -12804,7 +12776,7 @@
       <c r="E75" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="F75" s="49"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="25" t="s">
         <v>339</v>
       </c>
@@ -12823,7 +12795,7 @@
       <c r="R75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="53" t="s">
         <v>341</v>
       </c>
       <c r="B76" s="25" t="s">
@@ -12838,7 +12810,7 @@
       <c r="E76" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="F76" s="49"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="25" t="s">
         <v>339</v>
       </c>
@@ -12861,14 +12833,14 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="F77" s="49"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H77" s="49" t="s">
+      <c r="H77" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I77" s="18"/>
@@ -12898,11 +12870,11 @@
       <c r="E78" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="F78" s="49"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="H78" s="53" t="s">
+      <c r="H78" s="52" t="s">
         <v>350</v>
       </c>
       <c r="I78" s="18"/>
@@ -12917,7 +12889,7 @@
       <c r="R78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="53" t="s">
         <v>351</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -12932,7 +12904,7 @@
       <c r="E79" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="F79" s="49"/>
+      <c r="F79" s="48"/>
       <c r="G79" s="25" t="s">
         <v>339</v>
       </c>
@@ -12951,7 +12923,7 @@
       <c r="R79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="53" t="s">
         <v>353</v>
       </c>
       <c r="B80" s="25" t="s">
@@ -12966,7 +12938,7 @@
       <c r="E80" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="F80" s="49"/>
+      <c r="F80" s="48"/>
       <c r="G80" s="25" t="s">
         <v>339</v>
       </c>
@@ -12989,14 +12961,14 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="F81" s="49"/>
+      <c r="F81" s="48"/>
       <c r="G81" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H81" s="49" t="s">
+      <c r="H81" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I81" s="18"/>
@@ -13026,11 +12998,11 @@
       <c r="E82" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="F82" s="49"/>
+      <c r="F82" s="48"/>
       <c r="G82" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="H82" s="53" t="s">
+      <c r="H82" s="52" t="s">
         <v>358</v>
       </c>
       <c r="I82" s="18"/>
@@ -13045,7 +13017,7 @@
       <c r="R82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="53" t="s">
         <v>359</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -13060,7 +13032,7 @@
       <c r="E83" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="F83" s="49"/>
+      <c r="F83" s="48"/>
       <c r="G83" s="25" t="s">
         <v>339</v>
       </c>
@@ -13085,12 +13057,12 @@
       <c r="B84" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="37"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
       <c r="K84" s="18"/>
@@ -13154,11 +13126,11 @@
       <c r="E86" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="49"/>
+      <c r="F86" s="48"/>
       <c r="G86" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="H86" s="55" t="s">
+      <c r="H86" s="54" t="s">
         <v>375</v>
       </c>
       <c r="I86" s="18"/>
@@ -13179,10 +13151,10 @@
       <c r="B87" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
     </row>
@@ -13193,10 +13165,10 @@
       <c r="B88" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="11" t="s">
         <v>381</v>
       </c>
       <c r="E88" s="23" t="s">
@@ -13219,20 +13191,20 @@
       <c r="B89" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="11" t="s">
         <v>388</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="57" t="s">
+      <c r="F89" s="11"/>
+      <c r="G89" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="H89" s="49" t="s">
+      <c r="H89" s="48" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13243,20 +13215,20 @@
       <c r="B90" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>395</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H90" s="51" t="s">
+      <c r="H90" s="50" t="s">
         <v>397</v>
       </c>
     </row>
@@ -13267,14 +13239,14 @@
       <c r="B91" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="F91" s="56"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="32" t="s">
@@ -13283,10 +13255,10 @@
       <c r="B92" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
     </row>
@@ -13301,74 +13273,74 @@
       <c r="H93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="F94" s="10"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H94" s="60" t="s">
+      <c r="H94" s="58" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="56" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="F95" s="10"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H95" s="49" t="s">
+      <c r="H95" s="48" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F96" s="10"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="H96" s="49" t="s">
+      <c r="H96" s="48" t="s">
         <v>423</v>
       </c>
     </row>
@@ -13379,20 +13351,20 @@
       <c r="B97" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="F97" s="10"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H97" s="60" t="s">
+      <c r="H97" s="58" t="s">
         <v>427</v>
       </c>
     </row>
@@ -13403,16 +13375,16 @@
       <c r="B98" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="23" t="s">
         <v>416</v>
       </c>
@@ -13427,16 +13399,16 @@
       <c r="B99" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F99" s="10"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="23" t="s">
         <v>208</v>
       </c>
@@ -13451,20 +13423,20 @@
       <c r="B100" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H100" s="55" t="s">
+      <c r="H100" s="54" t="s">
         <v>435</v>
       </c>
     </row>
@@ -13475,16 +13447,16 @@
       <c r="B101" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="23" t="s">
         <v>416</v>
       </c>
@@ -13499,16 +13471,16 @@
       <c r="B102" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="23" t="s">
         <v>208</v>
       </c>
@@ -13523,20 +13495,20 @@
       <c r="B103" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="F103" s="10"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="H103" s="54" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13547,20 +13519,20 @@
       <c r="B104" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="F104" s="10"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H104" s="60" t="s">
+      <c r="H104" s="58" t="s">
         <v>445</v>
       </c>
     </row>
@@ -13571,20 +13543,20 @@
       <c r="B105" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F105" s="10"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="58" t="s">
         <v>449</v>
       </c>
     </row>
@@ -13595,12 +13567,12 @@
       <c r="B106" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C106" s="61" t="s">
+      <c r="C106" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
     </row>
@@ -13611,16 +13583,16 @@
       <c r="B107" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="F107" s="10"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="23" t="s">
         <v>458</v>
       </c>
@@ -13635,20 +13607,20 @@
       <c r="B108" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="F108" s="10"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="H108" s="49" t="s">
+      <c r="H108" s="48" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13659,14 +13631,14 @@
       <c r="B109" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="32" t="s">
@@ -13675,20 +13647,20 @@
       <c r="B110" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="F110" s="10"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="H110" s="49" t="s">
+      <c r="H110" s="48" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13699,22 +13671,22 @@
       <c r="B111" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="11" t="s">
         <v>478</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="F111" s="55" t="s">
+      <c r="F111" s="54" t="s">
         <v>249</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H111" s="49" t="s">
+      <c r="H111" s="48" t="s">
         <v>480</v>
       </c>
     </row>
@@ -13725,8 +13697,8 @@
       <c r="B112" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
     </row>
@@ -13734,23 +13706,23 @@
       <c r="A113" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="F113" s="10"/>
+      <c r="F113" s="11"/>
       <c r="G113" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="H113" s="49" t="s">
+      <c r="H113" s="48" t="s">
         <v>489</v>
       </c>
     </row>
@@ -13758,13 +13730,13 @@
       <c r="A114" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="B114" s="63"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64" t="s">
+      <c r="B114" s="60"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61" t="s">
         <v>487</v>
       </c>
-      <c r="F114" s="64"/>
+      <c r="F114" s="61"/>
       <c r="G114" s="25" t="s">
         <v>491</v>
       </c>
@@ -13776,13 +13748,13 @@
       <c r="A115" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="B115" s="63"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64" t="s">
+      <c r="B115" s="60"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61" t="s">
         <v>487</v>
       </c>
-      <c r="F115" s="64"/>
+      <c r="F115" s="61"/>
       <c r="G115" s="25" t="s">
         <v>494</v>
       </c>
@@ -13797,8 +13769,8 @@
       <c r="B116" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
     </row>
@@ -13809,20 +13781,20 @@
       <c r="B117" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="11" t="s">
         <v>500</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H117" s="49" t="s">
+      <c r="H117" s="48" t="s">
         <v>504</v>
       </c>
     </row>
@@ -13833,9 +13805,9 @@
       <c r="B118" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
+      <c r="C118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
     </row>
@@ -13846,16 +13818,16 @@
       <c r="B119" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="23" t="s">
         <v>503</v>
       </c>
@@ -13873,7 +13845,7 @@
       <c r="E120" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="F120" s="65" t="s">
+      <c r="F120" s="62" t="s">
         <v>516</v>
       </c>
       <c r="G120" s="18" t="s">
@@ -13888,12 +13860,12 @@
         <v>519</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
       <c r="E121" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="F121" s="66"/>
+      <c r="F121" s="63"/>
       <c r="G121" s="25" t="s">
         <v>520</v>
       </c>
@@ -13908,16 +13880,16 @@
       <c r="B122" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C122" s="66" t="s">
+      <c r="C122" s="63" t="s">
         <v>524</v>
       </c>
-      <c r="D122" s="66" t="s">
+      <c r="D122" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="E122" s="66" t="s">
+      <c r="E122" s="63" t="s">
         <v>526</v>
       </c>
-      <c r="F122" s="66"/>
+      <c r="F122" s="63"/>
       <c r="G122" s="18" t="s">
         <v>527</v>
       </c>
@@ -13932,20 +13904,20 @@
       <c r="B123" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C123" s="66" t="s">
+      <c r="C123" s="63" t="s">
         <v>531</v>
       </c>
-      <c r="D123" s="66" t="s">
+      <c r="D123" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="E123" s="66" t="s">
+      <c r="E123" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="F123" s="66"/>
-      <c r="G123" s="57" t="s">
+      <c r="F123" s="63"/>
+      <c r="G123" s="55" t="s">
         <v>534</v>
       </c>
-      <c r="H123" s="67" t="s">
+      <c r="H123" s="64" t="s">
         <v>535</v>
       </c>
     </row>
@@ -13956,20 +13928,20 @@
       <c r="B124" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="D124" s="66" t="s">
+      <c r="D124" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="E124" s="66" t="s">
+      <c r="E124" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="F124" s="66"/>
+      <c r="F124" s="63"/>
       <c r="G124" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="H124" s="67" t="s">
+      <c r="H124" s="64" t="s">
         <v>541</v>
       </c>
     </row>
@@ -13980,10 +13952,10 @@
       <c r="B125" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="D125" s="66" t="s">
+      <c r="D125" s="63" t="s">
         <v>545</v>
       </c>
       <c r="E125" s="25" t="s">
@@ -14006,10 +13978,10 @@
       <c r="B126" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C126" s="66" t="s">
+      <c r="C126" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="66"/>
+      <c r="D126" s="63"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="32" t="s">
@@ -14018,12 +13990,12 @@
       <c r="B127" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D127" s="66"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
       <c r="G127" s="23" t="s">
         <v>554</v>
       </c>
@@ -14038,20 +14010,20 @@
       <c r="B128" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C128" s="66" t="s">
+      <c r="C128" s="63" t="s">
         <v>558</v>
       </c>
-      <c r="D128" s="66" t="s">
+      <c r="D128" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="E128" s="66" t="s">
+      <c r="E128" s="63" t="s">
         <v>560</v>
       </c>
-      <c r="F128" s="66"/>
+      <c r="F128" s="63"/>
       <c r="G128" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="H128" s="60" t="s">
+      <c r="H128" s="58" t="s">
         <v>562</v>
       </c>
     </row>
@@ -14062,20 +14034,20 @@
       <c r="B129" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="C129" s="66" t="s">
+      <c r="C129" s="63" t="s">
         <v>558</v>
       </c>
-      <c r="D129" s="66" t="s">
+      <c r="D129" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="E129" s="66" t="s">
+      <c r="E129" s="63" t="s">
         <v>565</v>
       </c>
-      <c r="F129" s="66"/>
+      <c r="F129" s="63"/>
       <c r="G129" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="H129" s="69" t="s">
+      <c r="H129" s="65" t="s">
         <v>566</v>
       </c>
     </row>
@@ -14086,14 +14058,14 @@
       <c r="B130" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="C130" s="70" t="s">
+      <c r="C130" s="66" t="s">
         <v>569</v>
       </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66" t="s">
+      <c r="D130" s="63"/>
+      <c r="E130" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="F130" s="66"/>
+      <c r="F130" s="63"/>
       <c r="G130" s="23" t="s">
         <v>571</v>
       </c>
@@ -14108,21 +14080,21 @@
       <c r="B131" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="32" t="s">
         <v>574</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="66"/>
+      <c r="C132" s="63"/>
       <c r="E132" s="23" t="s">
         <v>575</v>
       </c>
@@ -14141,7 +14113,7 @@
         <v>574</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="66"/>
+      <c r="C133" s="63"/>
       <c r="E133" s="23" t="s">
         <v>575</v>
       </c>
@@ -14162,16 +14134,16 @@
       <c r="B134" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="C134" s="66" t="s">
+      <c r="C134" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="D134" s="66" t="s">
+      <c r="D134" s="63" t="s">
         <v>584</v>
       </c>
-      <c r="E134" s="66" t="s">
+      <c r="E134" s="63" t="s">
         <v>585</v>
       </c>
-      <c r="F134" s="66"/>
+      <c r="F134" s="63"/>
       <c r="G134" s="16" t="s">
         <v>540</v>
       </c>
@@ -14186,13 +14158,13 @@
       <c r="B135" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C135" s="71"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="72" t="s">
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="F135" s="73"/>
-      <c r="G135" s="55" t="s">
+      <c r="F135" s="69"/>
+      <c r="G135" s="54" t="s">
         <v>589</v>
       </c>
       <c r="H135" s="23" t="s">
@@ -14206,16 +14178,16 @@
       <c r="B136" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="C136" s="66" t="s">
+      <c r="C136" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="D136" s="66" t="s">
+      <c r="D136" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="E136" s="66" t="s">
+      <c r="E136" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="F136" s="66"/>
+      <c r="F136" s="63"/>
       <c r="G136" s="23" t="s">
         <v>596</v>
       </c>
@@ -14230,12 +14202,12 @@
       <c r="B137" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="66" t="s">
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63" t="s">
         <v>600</v>
       </c>
-      <c r="F137" s="66"/>
+      <c r="F137" s="63"/>
       <c r="G137" s="18" t="s">
         <v>601</v>
       </c>
@@ -14250,12 +14222,12 @@
       <c r="B138" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66" t="s">
+      <c r="C138" s="63"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="F138" s="66"/>
+      <c r="F138" s="63"/>
       <c r="G138" s="18" t="s">
         <v>601</v>
       </c>
@@ -14270,12 +14242,12 @@
       <c r="B139" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="66" t="s">
+      <c r="C139" s="63"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="F139" s="66"/>
+      <c r="F139" s="63"/>
       <c r="G139" s="18" t="s">
         <v>601</v>
       </c>
@@ -14290,12 +14262,12 @@
       <c r="B140" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66" t="s">
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="F140" s="66"/>
+      <c r="F140" s="63"/>
       <c r="G140" s="18" t="s">
         <v>601</v>
       </c>
@@ -14310,11 +14282,11 @@
       <c r="B141" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="C141" s="74" t="s">
+      <c r="C141" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66" t="s">
+      <c r="D141" s="63"/>
+      <c r="E141" s="63" t="s">
         <v>618</v>
       </c>
       <c r="F141" s="37"/>
@@ -14332,14 +14304,14 @@
       <c r="B142" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="C142" s="66" t="s">
+      <c r="C142" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D142" s="66"/>
+      <c r="D142" s="63"/>
       <c r="E142" s="16"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="32" t="s">
@@ -14348,16 +14320,16 @@
       <c r="B143" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="68" t="s">
+      <c r="C143" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D143" s="66" t="s">
+      <c r="D143" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="66" t="s">
+      <c r="E143" s="63" t="s">
         <v>622</v>
       </c>
-      <c r="F143" s="66"/>
+      <c r="F143" s="63"/>
       <c r="G143" s="27" t="s">
         <v>57</v>
       </c>
@@ -14372,16 +14344,16 @@
       <c r="B144" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D144" s="66" t="s">
+      <c r="D144" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E144" s="66" t="s">
+      <c r="E144" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="F144" s="66"/>
+      <c r="F144" s="63"/>
       <c r="G144" s="30" t="s">
         <v>64</v>
       </c>
@@ -14396,16 +14368,16 @@
       <c r="B145" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="68" t="s">
+      <c r="C145" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="D145" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E145" s="66" t="s">
+      <c r="E145" s="63" t="s">
         <v>626</v>
       </c>
-      <c r="F145" s="66"/>
+      <c r="F145" s="63"/>
       <c r="G145" s="18" t="s">
         <v>71</v>
       </c>
@@ -14420,16 +14392,16 @@
       <c r="B146" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C146" s="68" t="s">
+      <c r="C146" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D146" s="66" t="s">
+      <c r="D146" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E146" s="66" t="s">
+      <c r="E146" s="63" t="s">
         <v>628</v>
       </c>
-      <c r="F146" s="66"/>
+      <c r="F146" s="63"/>
       <c r="G146" s="18" t="s">
         <v>71</v>
       </c>
@@ -14444,16 +14416,16 @@
       <c r="B147" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C147" s="68" t="s">
+      <c r="C147" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="66" t="s">
+      <c r="D147" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="75" t="s">
+      <c r="E147" s="71" t="s">
         <v>630</v>
       </c>
-      <c r="F147" s="66" t="s">
+      <c r="F147" s="63" t="s">
         <v>631</v>
       </c>
       <c r="G147" s="23" t="s">
@@ -14470,16 +14442,16 @@
       <c r="B148" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C148" s="68" t="s">
+      <c r="C148" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D148" s="66" t="s">
+      <c r="D148" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E148" s="66" t="s">
+      <c r="E148" s="63" t="s">
         <v>634</v>
       </c>
-      <c r="F148" s="66"/>
+      <c r="F148" s="63"/>
       <c r="G148" s="18" t="s">
         <v>92</v>
       </c>
@@ -14494,16 +14466,16 @@
       <c r="B149" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="68" t="s">
+      <c r="C149" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D149" s="66" t="s">
+      <c r="D149" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E149" s="66" t="s">
+      <c r="E149" s="63" t="s">
         <v>636</v>
       </c>
-      <c r="F149" s="66"/>
+      <c r="F149" s="63"/>
       <c r="G149" s="27" t="s">
         <v>99</v>
       </c>
@@ -14518,20 +14490,20 @@
       <c r="B150" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C150" s="65" t="s">
+      <c r="C150" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D150" s="66" t="s">
+      <c r="D150" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E150" s="66" t="s">
+      <c r="E150" s="63" t="s">
         <v>638</v>
       </c>
-      <c r="F150" s="66"/>
-      <c r="G150" s="57" t="s">
+      <c r="F150" s="63"/>
+      <c r="G150" s="55" t="s">
         <v>639</v>
       </c>
-      <c r="H150" s="57" t="s">
+      <c r="H150" s="55" t="s">
         <v>640</v>
       </c>
     </row>
@@ -14542,20 +14514,20 @@
       <c r="B151" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="68" t="s">
+      <c r="C151" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D151" s="66" t="s">
+      <c r="D151" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E151" s="66" t="s">
+      <c r="E151" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="F151" s="66"/>
-      <c r="G151" s="57" t="s">
+      <c r="F151" s="63"/>
+      <c r="G151" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H151" s="57" t="s">
+      <c r="H151" s="55" t="s">
         <v>644</v>
       </c>
     </row>
@@ -14566,16 +14538,16 @@
       <c r="B152" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="C152" s="66" t="s">
+      <c r="C152" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D152" s="66" t="s">
+      <c r="D152" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E152" s="66" t="s">
+      <c r="E152" s="63" t="s">
         <v>647</v>
       </c>
-      <c r="F152" s="66"/>
+      <c r="F152" s="63"/>
       <c r="G152" s="30" t="s">
         <v>639</v>
       </c>
@@ -14590,20 +14562,20 @@
       <c r="B153" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C153" s="68" t="s">
+      <c r="C153" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D153" s="66" t="s">
+      <c r="D153" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E153" s="66" t="s">
+      <c r="E153" s="63" t="s">
         <v>650</v>
       </c>
-      <c r="F153" s="66"/>
-      <c r="G153" s="57" t="s">
+      <c r="F153" s="63"/>
+      <c r="G153" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H153" s="57" t="s">
+      <c r="H153" s="55" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14614,40 +14586,40 @@
       <c r="B154" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="C154" s="68" t="s">
+      <c r="C154" s="62" t="s">
         <v>654</v>
       </c>
-      <c r="D154" s="66" t="s">
+      <c r="D154" s="63" t="s">
         <v>655</v>
       </c>
-      <c r="E154" s="66" t="s">
+      <c r="E154" s="63" t="s">
         <v>656</v>
       </c>
-      <c r="F154" s="75" t="s">
+      <c r="F154" s="71" t="s">
         <v>657</v>
       </c>
       <c r="G154" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="H154" s="76" t="s">
+      <c r="H154" s="72" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="32"/>
       <c r="B155" s="18"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66" t="s">
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63" t="s">
         <v>656</v>
       </c>
-      <c r="F155" s="75" t="s">
+      <c r="F155" s="71" t="s">
         <v>657</v>
       </c>
-      <c r="G155" s="41" t="s">
+      <c r="G155" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="H155" s="41" t="s">
+      <c r="H155" s="40" t="s">
         <v>661</v>
       </c>
     </row>
@@ -14658,14 +14630,14 @@
       <c r="B156" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="C156" s="66" t="s">
+      <c r="C156" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D156" s="66"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="67"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="62"/>
+      <c r="F156" s="62"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="64"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="32" t="s">
@@ -14674,16 +14646,16 @@
       <c r="B157" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="C157" s="66" t="s">
+      <c r="C157" s="63" t="s">
         <v>666</v>
       </c>
-      <c r="D157" s="66" t="s">
+      <c r="D157" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E157" s="66" t="s">
+      <c r="E157" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="F157" s="66"/>
+      <c r="F157" s="63"/>
       <c r="G157" s="23" t="s">
         <v>668</v>
       </c>
@@ -14698,16 +14670,16 @@
       <c r="B158" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="C158" s="66" t="s">
+      <c r="C158" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="D158" s="66" t="s">
+      <c r="D158" s="63" t="s">
         <v>673</v>
       </c>
-      <c r="E158" s="66" t="s">
+      <c r="E158" s="63" t="s">
         <v>674</v>
       </c>
-      <c r="F158" s="66"/>
+      <c r="F158" s="63"/>
       <c r="G158" s="23" t="s">
         <v>675</v>
       </c>
@@ -14722,16 +14694,16 @@
       <c r="B159" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C159" s="66" t="s">
+      <c r="C159" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D159" s="66" t="s">
+      <c r="D159" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="E159" s="66" t="s">
+      <c r="E159" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="F159" s="66"/>
+      <c r="F159" s="63"/>
       <c r="G159" s="23" t="s">
         <v>679</v>
       </c>
@@ -14746,14 +14718,14 @@
       <c r="B160" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C160" s="77" t="s">
+      <c r="C160" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="D160" s="66"/>
-      <c r="E160" s="66" t="s">
+      <c r="D160" s="63"/>
+      <c r="E160" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="F160" s="66"/>
+      <c r="F160" s="63"/>
       <c r="G160" s="23" t="s">
         <v>684</v>
       </c>
@@ -14768,16 +14740,16 @@
       <c r="B161" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C161" s="66" t="s">
+      <c r="C161" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="D161" s="66" t="s">
+      <c r="D161" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="E161" s="66" t="s">
+      <c r="E161" s="63" t="s">
         <v>687</v>
       </c>
-      <c r="F161" s="66"/>
+      <c r="F161" s="63"/>
       <c r="G161" s="23" t="s">
         <v>679</v>
       </c>
@@ -14792,14 +14764,14 @@
       <c r="B162" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="77" t="s">
+      <c r="C162" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66" t="s">
+      <c r="D162" s="63"/>
+      <c r="E162" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="F162" s="66"/>
+      <c r="F162" s="63"/>
       <c r="G162" s="23" t="s">
         <v>684</v>
       </c>
@@ -14814,14 +14786,14 @@
       <c r="B163" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C163" s="66" t="s">
+      <c r="C163" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D163" s="66"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="67"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="62"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="64"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="32" t="s">
@@ -14830,20 +14802,20 @@
       <c r="B164" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="C164" s="66" t="s">
+      <c r="C164" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="D164" s="66" t="s">
+      <c r="D164" s="63" t="s">
         <v>696</v>
       </c>
-      <c r="E164" s="66" t="s">
+      <c r="E164" s="63" t="s">
         <v>697</v>
       </c>
-      <c r="F164" s="66"/>
-      <c r="G164" s="55" t="s">
+      <c r="F164" s="63"/>
+      <c r="G164" s="54" t="s">
         <v>698</v>
       </c>
-      <c r="H164" s="78" t="s">
+      <c r="H164" s="73" t="s">
         <v>699</v>
       </c>
     </row>
@@ -14862,16 +14834,16 @@
       <c r="B166" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="C166" s="66" t="s">
+      <c r="C166" s="63" t="s">
         <v>704</v>
       </c>
-      <c r="D166" s="66" t="s">
+      <c r="D166" s="63" t="s">
         <v>705</v>
       </c>
-      <c r="E166" s="66" t="s">
+      <c r="E166" s="63" t="s">
         <v>706</v>
       </c>
-      <c r="F166" s="66"/>
+      <c r="F166" s="63"/>
       <c r="G166" s="23" t="s">
         <v>707</v>
       </c>
@@ -14886,15 +14858,15 @@
       <c r="B167" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C167" s="77" t="s">
+      <c r="C167" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="D167" s="66"/>
-      <c r="E167" s="66" t="s">
+      <c r="D167" s="63"/>
+      <c r="E167" s="63" t="s">
         <v>710</v>
       </c>
-      <c r="F167" s="66"/>
-      <c r="G167" s="55" t="s">
+      <c r="F167" s="63"/>
+      <c r="G167" s="54" t="s">
         <v>711</v>
       </c>
       <c r="H167" s="23" t="s">
@@ -14908,17 +14880,17 @@
       <c r="B168" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="C168" s="66" t="s">
+      <c r="C168" s="63" t="s">
         <v>715</v>
       </c>
-      <c r="D168" s="66" t="s">
+      <c r="D168" s="63" t="s">
         <v>716</v>
       </c>
-      <c r="E168" s="66" t="s">
+      <c r="E168" s="63" t="s">
         <v>717</v>
       </c>
-      <c r="F168" s="66"/>
-      <c r="G168" s="55" t="s">
+      <c r="F168" s="63"/>
+      <c r="G168" s="54" t="s">
         <v>718</v>
       </c>
       <c r="H168" s="23" t="s">
@@ -14932,17 +14904,17 @@
       <c r="B169" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="C169" s="66" t="s">
+      <c r="C169" s="63" t="s">
         <v>722</v>
       </c>
-      <c r="D169" s="66" t="s">
+      <c r="D169" s="63" t="s">
         <v>723</v>
       </c>
-      <c r="E169" s="66" t="s">
+      <c r="E169" s="63" t="s">
         <v>724</v>
       </c>
-      <c r="F169" s="66"/>
-      <c r="G169" s="55" t="s">
+      <c r="F169" s="63"/>
+      <c r="G169" s="54" t="s">
         <v>725</v>
       </c>
       <c r="H169" s="23" t="s">
@@ -14956,12 +14928,12 @@
       <c r="B170" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="C170" s="79"/>
-      <c r="D170" s="80"/>
-      <c r="E170" s="79"/>
-      <c r="F170" s="79"/>
-      <c r="G170" s="80"/>
-      <c r="H170" s="80"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="75"/>
+      <c r="H170" s="75"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="32" t="s">
@@ -14970,20 +14942,20 @@
       <c r="B171" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C171" s="66" t="s">
+      <c r="C171" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E171" s="81" t="s">
+      <c r="E171" s="76" t="s">
         <v>730</v>
       </c>
-      <c r="F171" s="81"/>
-      <c r="G171" s="82" t="s">
+      <c r="F171" s="76"/>
+      <c r="G171" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="H171" s="83" t="s">
+      <c r="H171" s="78" t="s">
         <v>731</v>
       </c>
     </row>
@@ -14994,14 +14966,14 @@
       <c r="B172" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="C172" s="66" t="s">
+      <c r="C172" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D172" s="80"/>
-      <c r="E172" s="84"/>
-      <c r="F172" s="84"/>
-      <c r="G172" s="80"/>
-      <c r="H172" s="80"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="79"/>
+      <c r="F172" s="79"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="32" t="s">
@@ -15010,14 +14982,14 @@
       <c r="B173" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="D173" s="80"/>
+      <c r="D173" s="75"/>
       <c r="E173" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F173" s="68"/>
+      <c r="F173" s="62"/>
       <c r="G173" s="23" t="s">
         <v>737</v>
       </c>
@@ -15032,20 +15004,20 @@
       <c r="B174" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C174" s="66" t="s">
+      <c r="C174" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D174" s="66" t="s">
+      <c r="D174" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E174" s="66" t="s">
+      <c r="E174" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="F174" s="66"/>
-      <c r="G174" s="80" t="s">
+      <c r="F174" s="63"/>
+      <c r="G174" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H174" s="80" t="s">
+      <c r="H174" s="75" t="s">
         <v>741</v>
       </c>
     </row>
@@ -15056,20 +15028,20 @@
       <c r="B175" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C175" s="66" t="s">
+      <c r="C175" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D175" s="66" t="s">
+      <c r="D175" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E175" s="66" t="s">
+      <c r="E175" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="F175" s="66"/>
-      <c r="G175" s="80" t="s">
+      <c r="F175" s="63"/>
+      <c r="G175" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H175" s="80" t="s">
+      <c r="H175" s="75" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15080,20 +15052,20 @@
       <c r="B176" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C176" s="66" t="s">
+      <c r="C176" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D176" s="66" t="s">
+      <c r="D176" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E176" s="66" t="s">
+      <c r="E176" s="63" t="s">
         <v>746</v>
       </c>
-      <c r="F176" s="66"/>
-      <c r="G176" s="80" t="s">
+      <c r="F176" s="63"/>
+      <c r="G176" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H176" s="80" t="s">
+      <c r="H176" s="75" t="s">
         <v>747</v>
       </c>
     </row>
@@ -15104,20 +15076,20 @@
       <c r="B177" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C177" s="66" t="s">
+      <c r="C177" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D177" s="66" t="s">
+      <c r="D177" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E177" s="66" t="s">
+      <c r="E177" s="63" t="s">
         <v>749</v>
       </c>
-      <c r="F177" s="66"/>
-      <c r="G177" s="80" t="s">
+      <c r="F177" s="63"/>
+      <c r="G177" s="75" t="s">
         <v>750</v>
       </c>
-      <c r="H177" s="80" t="s">
+      <c r="H177" s="75" t="s">
         <v>751</v>
       </c>
     </row>
@@ -15128,20 +15100,20 @@
       <c r="B178" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C178" s="66" t="s">
+      <c r="C178" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D178" s="66" t="s">
+      <c r="D178" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E178" s="66" t="s">
+      <c r="E178" s="63" t="s">
         <v>753</v>
       </c>
-      <c r="F178" s="66"/>
-      <c r="G178" s="66" t="s">
+      <c r="F178" s="63"/>
+      <c r="G178" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H178" s="66" t="s">
+      <c r="H178" s="63" t="s">
         <v>754</v>
       </c>
     </row>
@@ -15152,20 +15124,20 @@
       <c r="B179" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C179" s="66" t="s">
+      <c r="C179" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D179" s="66" t="s">
+      <c r="D179" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E179" s="66" t="s">
+      <c r="E179" s="63" t="s">
         <v>756</v>
       </c>
-      <c r="F179" s="66"/>
-      <c r="G179" s="57" t="s">
+      <c r="F179" s="63"/>
+      <c r="G179" s="55" t="s">
         <v>639</v>
       </c>
-      <c r="H179" s="57" t="s">
+      <c r="H179" s="55" t="s">
         <v>640</v>
       </c>
     </row>
@@ -15176,20 +15148,20 @@
       <c r="B180" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C180" s="66" t="s">
+      <c r="C180" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D180" s="66" t="s">
+      <c r="D180" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E180" s="66" t="s">
+      <c r="E180" s="63" t="s">
         <v>758</v>
       </c>
-      <c r="F180" s="66"/>
-      <c r="G180" s="57" t="s">
+      <c r="F180" s="63"/>
+      <c r="G180" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H180" s="57" t="s">
+      <c r="H180" s="55" t="s">
         <v>644</v>
       </c>
     </row>
@@ -15200,16 +15172,16 @@
       <c r="B181" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="C181" s="66" t="s">
+      <c r="C181" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D181" s="66" t="s">
+      <c r="D181" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E181" s="66" t="s">
+      <c r="E181" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="F181" s="66"/>
+      <c r="F181" s="63"/>
       <c r="G181" s="30" t="s">
         <v>639</v>
       </c>
@@ -15224,20 +15196,20 @@
       <c r="B182" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C182" s="66" t="s">
+      <c r="C182" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D182" s="66" t="s">
+      <c r="D182" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E182" s="66" t="s">
+      <c r="E182" s="63" t="s">
         <v>762</v>
       </c>
-      <c r="F182" s="66"/>
-      <c r="G182" s="57" t="s">
+      <c r="F182" s="63"/>
+      <c r="G182" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H182" s="57" t="s">
+      <c r="H182" s="55" t="s">
         <v>651</v>
       </c>
     </row>
@@ -15248,14 +15220,14 @@
       <c r="B183" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="C183" s="85" t="s">
+      <c r="C183" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="D183" s="86"/>
+      <c r="D183" s="81"/>
       <c r="E183" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F183" s="68"/>
+      <c r="F183" s="62"/>
       <c r="G183" s="23" t="s">
         <v>765</v>
       </c>
@@ -15270,20 +15242,20 @@
       <c r="B184" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="66" t="s">
+      <c r="C184" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D184" s="66" t="s">
+      <c r="D184" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E184" s="66" t="s">
+      <c r="E184" s="63" t="s">
         <v>767</v>
       </c>
-      <c r="F184" s="66"/>
-      <c r="G184" s="80" t="s">
+      <c r="F184" s="63"/>
+      <c r="G184" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H184" s="80" t="s">
+      <c r="H184" s="75" t="s">
         <v>741</v>
       </c>
     </row>
@@ -15294,20 +15266,20 @@
       <c r="B185" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C185" s="66" t="s">
+      <c r="C185" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D185" s="66" t="s">
+      <c r="D185" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="66" t="s">
+      <c r="E185" s="63" t="s">
         <v>769</v>
       </c>
-      <c r="F185" s="66"/>
-      <c r="G185" s="80" t="s">
+      <c r="F185" s="63"/>
+      <c r="G185" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H185" s="80" t="s">
+      <c r="H185" s="75" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15318,20 +15290,20 @@
       <c r="B186" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C186" s="66" t="s">
+      <c r="C186" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D186" s="66" t="s">
+      <c r="D186" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E186" s="66" t="s">
+      <c r="E186" s="63" t="s">
         <v>771</v>
       </c>
-      <c r="F186" s="66"/>
-      <c r="G186" s="80" t="s">
+      <c r="F186" s="63"/>
+      <c r="G186" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H186" s="80" t="s">
+      <c r="H186" s="75" t="s">
         <v>747</v>
       </c>
     </row>
@@ -15342,20 +15314,20 @@
       <c r="B187" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C187" s="66" t="s">
+      <c r="C187" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D187" s="66" t="s">
+      <c r="D187" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E187" s="66" t="s">
+      <c r="E187" s="63" t="s">
         <v>773</v>
       </c>
-      <c r="F187" s="66"/>
-      <c r="G187" s="80" t="s">
+      <c r="F187" s="63"/>
+      <c r="G187" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="H187" s="80" t="s">
+      <c r="H187" s="75" t="s">
         <v>751</v>
       </c>
     </row>
@@ -15366,20 +15338,20 @@
       <c r="B188" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C188" s="66" t="s">
+      <c r="C188" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D188" s="66" t="s">
+      <c r="D188" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E188" s="66" t="s">
+      <c r="E188" s="63" t="s">
         <v>775</v>
       </c>
-      <c r="F188" s="66"/>
-      <c r="G188" s="80" t="s">
+      <c r="F188" s="63"/>
+      <c r="G188" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H188" s="80" t="s">
+      <c r="H188" s="75" t="s">
         <v>754</v>
       </c>
     </row>
@@ -15390,20 +15362,20 @@
       <c r="B189" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C189" s="66" t="s">
+      <c r="C189" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D189" s="66" t="s">
+      <c r="D189" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E189" s="66" t="s">
+      <c r="E189" s="63" t="s">
         <v>777</v>
       </c>
-      <c r="F189" s="66"/>
-      <c r="G189" s="57" t="s">
+      <c r="F189" s="63"/>
+      <c r="G189" s="55" t="s">
         <v>639</v>
       </c>
-      <c r="H189" s="57" t="s">
+      <c r="H189" s="55" t="s">
         <v>640</v>
       </c>
     </row>
@@ -15414,20 +15386,20 @@
       <c r="B190" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C190" s="66" t="s">
+      <c r="C190" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D190" s="66" t="s">
+      <c r="D190" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E190" s="66" t="s">
+      <c r="E190" s="63" t="s">
         <v>779</v>
       </c>
-      <c r="F190" s="66"/>
-      <c r="G190" s="57" t="s">
+      <c r="F190" s="63"/>
+      <c r="G190" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H190" s="57" t="s">
+      <c r="H190" s="55" t="s">
         <v>644</v>
       </c>
     </row>
@@ -15438,16 +15410,16 @@
       <c r="B191" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="C191" s="66" t="s">
+      <c r="C191" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D191" s="66" t="s">
+      <c r="D191" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E191" s="66" t="s">
+      <c r="E191" s="63" t="s">
         <v>781</v>
       </c>
-      <c r="F191" s="66"/>
+      <c r="F191" s="63"/>
       <c r="G191" s="30" t="s">
         <v>639</v>
       </c>
@@ -15462,20 +15434,20 @@
       <c r="B192" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C192" s="66" t="s">
+      <c r="C192" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D192" s="66" t="s">
+      <c r="D192" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E192" s="66" t="s">
+      <c r="E192" s="63" t="s">
         <v>783</v>
       </c>
-      <c r="F192" s="66"/>
-      <c r="G192" s="57" t="s">
+      <c r="F192" s="63"/>
+      <c r="G192" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H192" s="57" t="s">
+      <c r="H192" s="55" t="s">
         <v>651</v>
       </c>
     </row>
@@ -15486,20 +15458,20 @@
       <c r="B193" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="C193" s="66" t="s">
+      <c r="C193" s="63" t="s">
         <v>786</v>
       </c>
-      <c r="D193" s="66" t="s">
+      <c r="D193" s="63" t="s">
         <v>787</v>
       </c>
-      <c r="E193" s="66" t="s">
+      <c r="E193" s="63" t="s">
         <v>788</v>
       </c>
-      <c r="F193" s="65"/>
-      <c r="G193" s="82" t="s">
+      <c r="F193" s="62"/>
+      <c r="G193" s="77" t="s">
         <v>789</v>
       </c>
-      <c r="H193" s="83" t="s">
+      <c r="H193" s="78" t="s">
         <v>790</v>
       </c>
     </row>
@@ -15510,12 +15482,12 @@
       <c r="B194" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="C194" s="79"/>
-      <c r="D194" s="79"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
       <c r="E194" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F194" s="68"/>
+      <c r="F194" s="62"/>
       <c r="G194" s="23" t="s">
         <v>793</v>
       </c>
@@ -15530,20 +15502,20 @@
       <c r="B195" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C195" s="66" t="s">
+      <c r="C195" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D195" s="66" t="s">
+      <c r="D195" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E195" s="66" t="s">
+      <c r="E195" s="63" t="s">
         <v>795</v>
       </c>
-      <c r="F195" s="66"/>
-      <c r="G195" s="80" t="s">
+      <c r="F195" s="63"/>
+      <c r="G195" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H195" s="80" t="s">
+      <c r="H195" s="75" t="s">
         <v>741</v>
       </c>
     </row>
@@ -15554,20 +15526,20 @@
       <c r="B196" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C196" s="66" t="s">
+      <c r="C196" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D196" s="66" t="s">
+      <c r="D196" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E196" s="66" t="s">
+      <c r="E196" s="63" t="s">
         <v>797</v>
       </c>
-      <c r="F196" s="66"/>
-      <c r="G196" s="80" t="s">
+      <c r="F196" s="63"/>
+      <c r="G196" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H196" s="80" t="s">
+      <c r="H196" s="75" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15578,20 +15550,20 @@
       <c r="B197" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C197" s="66" t="s">
+      <c r="C197" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D197" s="66" t="s">
+      <c r="D197" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E197" s="66" t="s">
+      <c r="E197" s="63" t="s">
         <v>799</v>
       </c>
-      <c r="F197" s="66"/>
-      <c r="G197" s="80" t="s">
+      <c r="F197" s="63"/>
+      <c r="G197" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H197" s="80" t="s">
+      <c r="H197" s="75" t="s">
         <v>747</v>
       </c>
     </row>
@@ -15602,20 +15574,20 @@
       <c r="B198" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C198" s="66" t="s">
+      <c r="C198" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D198" s="66" t="s">
+      <c r="D198" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E198" s="66" t="s">
+      <c r="E198" s="63" t="s">
         <v>801</v>
       </c>
-      <c r="F198" s="66"/>
-      <c r="G198" s="80" t="s">
+      <c r="F198" s="63"/>
+      <c r="G198" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="H198" s="80" t="s">
+      <c r="H198" s="75" t="s">
         <v>751</v>
       </c>
     </row>
@@ -15626,20 +15598,20 @@
       <c r="B199" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C199" s="66" t="s">
+      <c r="C199" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D199" s="66" t="s">
+      <c r="D199" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E199" s="66" t="s">
+      <c r="E199" s="63" t="s">
         <v>803</v>
       </c>
-      <c r="F199" s="66"/>
-      <c r="G199" s="66" t="s">
+      <c r="F199" s="63"/>
+      <c r="G199" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H199" s="66" t="s">
+      <c r="H199" s="63" t="s">
         <v>754</v>
       </c>
     </row>
@@ -15650,20 +15622,20 @@
       <c r="B200" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="66" t="s">
+      <c r="C200" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D200" s="66" t="s">
+      <c r="D200" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E200" s="66" t="s">
+      <c r="E200" s="63" t="s">
         <v>805</v>
       </c>
-      <c r="F200" s="66"/>
-      <c r="G200" s="57" t="s">
+      <c r="F200" s="63"/>
+      <c r="G200" s="55" t="s">
         <v>639</v>
       </c>
-      <c r="H200" s="57" t="s">
+      <c r="H200" s="55" t="s">
         <v>640</v>
       </c>
     </row>
@@ -15674,20 +15646,20 @@
       <c r="B201" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C201" s="66" t="s">
+      <c r="C201" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D201" s="66" t="s">
+      <c r="D201" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E201" s="66" t="s">
+      <c r="E201" s="63" t="s">
         <v>807</v>
       </c>
-      <c r="F201" s="66"/>
-      <c r="G201" s="57" t="s">
+      <c r="F201" s="63"/>
+      <c r="G201" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H201" s="57" t="s">
+      <c r="H201" s="55" t="s">
         <v>644</v>
       </c>
     </row>
@@ -15698,16 +15670,16 @@
       <c r="B202" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="C202" s="66" t="s">
+      <c r="C202" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D202" s="66" t="s">
+      <c r="D202" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E202" s="66" t="s">
+      <c r="E202" s="63" t="s">
         <v>809</v>
       </c>
-      <c r="F202" s="66"/>
+      <c r="F202" s="63"/>
       <c r="G202" s="30" t="s">
         <v>639</v>
       </c>
@@ -15722,20 +15694,20 @@
       <c r="B203" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C203" s="66" t="s">
+      <c r="C203" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D203" s="66" t="s">
+      <c r="D203" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E203" s="66" t="s">
+      <c r="E203" s="63" t="s">
         <v>811</v>
       </c>
-      <c r="F203" s="66"/>
-      <c r="G203" s="57" t="s">
+      <c r="F203" s="63"/>
+      <c r="G203" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="H203" s="57" t="s">
+      <c r="H203" s="55" t="s">
         <v>651</v>
       </c>
     </row>
@@ -15746,20 +15718,20 @@
       <c r="B204" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="C204" s="87" t="s">
+      <c r="C204" s="82" t="s">
         <v>814</v>
       </c>
-      <c r="D204" s="87" t="s">
+      <c r="D204" s="82" t="s">
         <v>815</v>
       </c>
-      <c r="E204" s="88" t="s">
+      <c r="E204" s="83" t="s">
         <v>816</v>
       </c>
-      <c r="F204" s="88"/>
-      <c r="G204" s="89" t="s">
+      <c r="F204" s="83"/>
+      <c r="G204" s="84" t="s">
         <v>817</v>
       </c>
-      <c r="H204" s="89" t="s">
+      <c r="H204" s="84" t="s">
         <v>818</v>
       </c>
     </row>
@@ -15770,8 +15742,8 @@
       <c r="B205" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="G205" s="67"/>
-      <c r="H205" s="67"/>
+      <c r="G205" s="64"/>
+      <c r="H205" s="64"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="32" t="s">
@@ -15780,15 +15752,15 @@
       <c r="B206" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="C206" s="90" t="s">
+      <c r="C206" s="85" t="s">
         <v>452</v>
       </c>
-      <c r="D206" s="68"/>
-      <c r="E206" s="66" t="s">
+      <c r="D206" s="62"/>
+      <c r="E206" s="63" t="s">
         <v>823</v>
       </c>
-      <c r="G206" s="67"/>
-      <c r="H206" s="67"/>
+      <c r="G206" s="64"/>
+      <c r="H206" s="64"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="32" t="s">
@@ -15797,10 +15769,10 @@
       <c r="B207" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="C207" s="66" t="s">
+      <c r="C207" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D207" s="66" t="s">
+      <c r="D207" s="63" t="s">
         <v>827</v>
       </c>
       <c r="E207" s="16" t="s">
@@ -15809,10 +15781,10 @@
       <c r="F207" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="G207" s="91" t="s">
+      <c r="G207" s="86" t="s">
         <v>829</v>
       </c>
-      <c r="H207" s="92" t="s">
+      <c r="H207" s="87" t="s">
         <v>830</v>
       </c>
     </row>
@@ -15823,20 +15795,20 @@
       <c r="B208" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="63" t="s">
         <v>832</v>
       </c>
-      <c r="D208" s="66" t="s">
+      <c r="D208" s="63" t="s">
         <v>833</v>
       </c>
-      <c r="E208" s="66" t="s">
+      <c r="E208" s="63" t="s">
         <v>834</v>
       </c>
       <c r="F208" s="11"/>
-      <c r="G208" s="55" t="s">
+      <c r="G208" s="54" t="s">
         <v>835</v>
       </c>
-      <c r="H208" s="60" t="s">
+      <c r="H208" s="58" t="s">
         <v>836</v>
       </c>
     </row>
@@ -15847,20 +15819,20 @@
       <c r="B209" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="C209" s="66" t="s">
+      <c r="C209" s="63" t="s">
         <v>832</v>
       </c>
-      <c r="D209" s="66" t="s">
+      <c r="D209" s="63" t="s">
         <v>833</v>
       </c>
-      <c r="E209" s="66" t="s">
+      <c r="E209" s="63" t="s">
         <v>839</v>
       </c>
       <c r="F209" s="11"/>
-      <c r="G209" s="55" t="s">
+      <c r="G209" s="54" t="s">
         <v>835</v>
       </c>
-      <c r="H209" s="60" t="s">
+      <c r="H209" s="58" t="s">
         <v>840</v>
       </c>
     </row>
@@ -15871,19 +15843,19 @@
       <c r="B210" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C210" s="66" t="s">
+      <c r="C210" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D210" s="66" t="s">
+      <c r="D210" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E210" s="66" t="s">
+      <c r="E210" s="63" t="s">
         <v>843</v>
       </c>
       <c r="G210" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H210" s="69" t="s">
+      <c r="H210" s="65" t="s">
         <v>844</v>
       </c>
     </row>
@@ -15894,12 +15866,12 @@
       <c r="B211" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="C211" s="66" t="s">
+      <c r="C211" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="H211" s="67"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="H211" s="64"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="32" t="s">
@@ -15908,19 +15880,19 @@
       <c r="B212" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C212" s="66" t="s">
+      <c r="C212" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D212" s="66" t="s">
+      <c r="D212" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E212" s="66" t="s">
+      <c r="E212" s="63" t="s">
         <v>849</v>
       </c>
       <c r="G212" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H212" s="69" t="s">
+      <c r="H212" s="65" t="s">
         <v>850</v>
       </c>
     </row>
@@ -15931,19 +15903,19 @@
       <c r="B213" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="C213" s="66" t="s">
+      <c r="C213" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D213" s="66" t="s">
+      <c r="D213" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E213" s="66" t="s">
+      <c r="E213" s="63" t="s">
         <v>853</v>
       </c>
       <c r="G213" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H213" s="69" t="s">
+      <c r="H213" s="65" t="s">
         <v>854</v>
       </c>
     </row>
@@ -15954,19 +15926,19 @@
       <c r="B214" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D214" s="66" t="s">
+      <c r="D214" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E214" s="66" t="s">
+      <c r="E214" s="63" t="s">
         <v>857</v>
       </c>
       <c r="G214" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H214" s="69" t="s">
+      <c r="H214" s="65" t="s">
         <v>858</v>
       </c>
     </row>
@@ -15977,19 +15949,19 @@
       <c r="B215" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="C215" s="66" t="s">
+      <c r="C215" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D215" s="66" t="s">
+      <c r="D215" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E215" s="66" t="s">
+      <c r="E215" s="63" t="s">
         <v>861</v>
       </c>
       <c r="G215" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H215" s="69" t="s">
+      <c r="H215" s="65" t="s">
         <v>862</v>
       </c>
     </row>
@@ -16000,19 +15972,19 @@
       <c r="B216" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="C216" s="66" t="s">
+      <c r="C216" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D216" s="66" t="s">
+      <c r="D216" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E216" s="66" t="s">
+      <c r="E216" s="63" t="s">
         <v>865</v>
       </c>
       <c r="G216" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H216" s="69" t="s">
+      <c r="H216" s="65" t="s">
         <v>866</v>
       </c>
     </row>
@@ -16023,19 +15995,19 @@
       <c r="B217" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D217" s="66" t="s">
+      <c r="D217" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E217" s="66" t="s">
+      <c r="E217" s="63" t="s">
         <v>869</v>
       </c>
       <c r="G217" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H217" s="69" t="s">
+      <c r="H217" s="65" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16046,19 +16018,19 @@
       <c r="B218" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="C218" s="66" t="s">
+      <c r="C218" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D218" s="66" t="s">
+      <c r="D218" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E218" s="66" t="s">
+      <c r="E218" s="63" t="s">
         <v>873</v>
       </c>
       <c r="G218" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H218" s="69" t="s">
+      <c r="H218" s="65" t="s">
         <v>874</v>
       </c>
     </row>
@@ -16069,19 +16041,19 @@
       <c r="B219" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="C219" s="66" t="s">
+      <c r="C219" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D219" s="66" t="s">
+      <c r="D219" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E219" s="66" t="s">
+      <c r="E219" s="63" t="s">
         <v>877</v>
       </c>
       <c r="G219" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H219" s="69" t="s">
+      <c r="H219" s="65" t="s">
         <v>878</v>
       </c>
     </row>
@@ -16092,12 +16064,12 @@
       <c r="B220" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="C220" s="66" t="s">
+      <c r="C220" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D220" s="66"/>
-      <c r="E220" s="66"/>
-      <c r="H220" s="67"/>
+      <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
+      <c r="H220" s="64"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="32" t="s">
@@ -16106,19 +16078,19 @@
       <c r="B221" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="C221" s="66" t="s">
+      <c r="C221" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D221" s="66" t="s">
+      <c r="D221" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E221" s="66" t="s">
+      <c r="E221" s="63" t="s">
         <v>883</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H221" s="69" t="s">
+      <c r="H221" s="65" t="s">
         <v>884</v>
       </c>
     </row>
@@ -16129,19 +16101,19 @@
       <c r="B222" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="C222" s="66" t="s">
+      <c r="C222" s="63" t="s">
         <v>826</v>
       </c>
-      <c r="D222" s="66" t="s">
+      <c r="D222" s="63" t="s">
         <v>827</v>
       </c>
-      <c r="E222" s="66" t="s">
+      <c r="E222" s="63" t="s">
         <v>887</v>
       </c>
       <c r="G222" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="H222" s="69" t="s">
+      <c r="H222" s="65" t="s">
         <v>888</v>
       </c>
     </row>
@@ -16152,12 +16124,12 @@
       <c r="B223" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="C223" s="66" t="s">
+      <c r="C223" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D223" s="68"/>
-      <c r="E223" s="66"/>
-      <c r="H223" s="67"/>
+      <c r="D223" s="62"/>
+      <c r="E223" s="63"/>
+      <c r="H223" s="64"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="32" t="s">
@@ -16166,17 +16138,17 @@
       <c r="B224" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="C224" s="70" t="s">
+      <c r="C224" s="66" t="s">
         <v>569</v>
       </c>
-      <c r="D224" s="66"/>
-      <c r="E224" s="66" t="s">
+      <c r="D224" s="63"/>
+      <c r="E224" s="63" t="s">
         <v>893</v>
       </c>
       <c r="G224" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="H224" s="60" t="s">
+      <c r="H224" s="58" t="s">
         <v>894</v>
       </c>
     </row>
@@ -16187,12 +16159,12 @@
       <c r="B225" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="C225" s="66" t="s">
+      <c r="C225" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D225" s="68"/>
-      <c r="E225" s="66"/>
-      <c r="H225" s="67"/>
+      <c r="D225" s="62"/>
+      <c r="E225" s="63"/>
+      <c r="H225" s="64"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="32" t="s">
@@ -16201,13 +16173,13 @@
       <c r="B226" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C226" s="66" t="s">
+      <c r="C226" s="63" t="s">
         <v>899</v>
       </c>
-      <c r="D226" s="66" t="s">
+      <c r="D226" s="63" t="s">
         <v>900</v>
       </c>
-      <c r="E226" s="88" t="s">
+      <c r="E226" s="83" t="s">
         <v>901</v>
       </c>
       <c r="G226" s="18" t="s">
@@ -16218,409 +16190,409 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="93"/>
-      <c r="G227" s="67"/>
-      <c r="H227" s="67"/>
+      <c r="A227" s="32"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="64"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="93"/>
-      <c r="G228" s="67"/>
-      <c r="H228" s="67"/>
+      <c r="A228" s="32"/>
+      <c r="G228" s="64"/>
+      <c r="H228" s="64"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="93"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
+      <c r="A229" s="32"/>
+      <c r="G229" s="64"/>
+      <c r="H229" s="64"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="93"/>
-      <c r="G230" s="67"/>
-      <c r="H230" s="67"/>
+      <c r="A230" s="32"/>
+      <c r="G230" s="64"/>
+      <c r="H230" s="64"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="93"/>
-      <c r="G231" s="67"/>
-      <c r="H231" s="67"/>
+      <c r="A231" s="32"/>
+      <c r="G231" s="64"/>
+      <c r="H231" s="64"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="93"/>
-      <c r="G232" s="67"/>
-      <c r="H232" s="67"/>
+      <c r="A232" s="32"/>
+      <c r="G232" s="64"/>
+      <c r="H232" s="64"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="93"/>
-      <c r="G233" s="67"/>
-      <c r="H233" s="67"/>
+      <c r="A233" s="32"/>
+      <c r="G233" s="64"/>
+      <c r="H233" s="64"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="93"/>
-      <c r="G234" s="67"/>
-      <c r="H234" s="67"/>
+      <c r="A234" s="32"/>
+      <c r="G234" s="64"/>
+      <c r="H234" s="64"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="93"/>
-      <c r="G235" s="67"/>
-      <c r="H235" s="67"/>
+      <c r="A235" s="32"/>
+      <c r="G235" s="64"/>
+      <c r="H235" s="64"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="93"/>
-      <c r="G236" s="67"/>
-      <c r="H236" s="67"/>
+      <c r="A236" s="32"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="64"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="93"/>
-      <c r="G237" s="67"/>
-      <c r="H237" s="67"/>
+      <c r="A237" s="32"/>
+      <c r="G237" s="64"/>
+      <c r="H237" s="64"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="93"/>
-      <c r="G238" s="67"/>
-      <c r="H238" s="67"/>
+      <c r="A238" s="32"/>
+      <c r="G238" s="64"/>
+      <c r="H238" s="64"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="93"/>
-      <c r="G239" s="67"/>
-      <c r="H239" s="67"/>
+      <c r="A239" s="32"/>
+      <c r="G239" s="64"/>
+      <c r="H239" s="64"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="93"/>
-      <c r="G240" s="67"/>
-      <c r="H240" s="67"/>
+      <c r="A240" s="32"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="64"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="93"/>
-      <c r="G241" s="67"/>
-      <c r="H241" s="67"/>
+      <c r="A241" s="32"/>
+      <c r="G241" s="64"/>
+      <c r="H241" s="64"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="93"/>
-      <c r="G242" s="67"/>
-      <c r="H242" s="67"/>
+      <c r="A242" s="32"/>
+      <c r="G242" s="64"/>
+      <c r="H242" s="64"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="93"/>
-      <c r="G243" s="67"/>
-      <c r="H243" s="67"/>
+      <c r="A243" s="32"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="64"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="93"/>
-      <c r="G244" s="67"/>
-      <c r="H244" s="67"/>
+      <c r="A244" s="32"/>
+      <c r="G244" s="64"/>
+      <c r="H244" s="64"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="93"/>
-      <c r="G245" s="67"/>
-      <c r="H245" s="67"/>
+      <c r="A245" s="32"/>
+      <c r="G245" s="64"/>
+      <c r="H245" s="64"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="93"/>
-      <c r="G246" s="67"/>
-      <c r="H246" s="67"/>
+      <c r="A246" s="32"/>
+      <c r="G246" s="64"/>
+      <c r="H246" s="64"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="93"/>
-      <c r="G247" s="67"/>
-      <c r="H247" s="67"/>
+      <c r="A247" s="32"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="93"/>
-      <c r="G248" s="67"/>
-      <c r="H248" s="67"/>
+      <c r="A248" s="32"/>
+      <c r="G248" s="64"/>
+      <c r="H248" s="64"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="93"/>
-      <c r="G249" s="67"/>
-      <c r="H249" s="67"/>
+      <c r="A249" s="32"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="64"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="93"/>
-      <c r="G250" s="67"/>
-      <c r="H250" s="67"/>
+      <c r="A250" s="32"/>
+      <c r="G250" s="64"/>
+      <c r="H250" s="64"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="93"/>
-      <c r="G251" s="67"/>
-      <c r="H251" s="67"/>
+      <c r="A251" s="32"/>
+      <c r="G251" s="64"/>
+      <c r="H251" s="64"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="93"/>
-      <c r="G252" s="67"/>
-      <c r="H252" s="67"/>
+      <c r="A252" s="32"/>
+      <c r="G252" s="64"/>
+      <c r="H252" s="64"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="93"/>
-      <c r="G253" s="67"/>
-      <c r="H253" s="67"/>
+      <c r="A253" s="32"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="64"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="93"/>
-      <c r="G254" s="67"/>
-      <c r="H254" s="67"/>
+      <c r="A254" s="32"/>
+      <c r="G254" s="64"/>
+      <c r="H254" s="64"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="93"/>
-      <c r="G255" s="67"/>
-      <c r="H255" s="67"/>
+      <c r="A255" s="32"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="93"/>
-      <c r="G256" s="67"/>
-      <c r="H256" s="67"/>
+      <c r="A256" s="32"/>
+      <c r="G256" s="64"/>
+      <c r="H256" s="64"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="93"/>
-      <c r="G257" s="67"/>
-      <c r="H257" s="67"/>
+      <c r="A257" s="32"/>
+      <c r="G257" s="64"/>
+      <c r="H257" s="64"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="93"/>
-      <c r="G258" s="67"/>
-      <c r="H258" s="67"/>
+      <c r="A258" s="32"/>
+      <c r="G258" s="64"/>
+      <c r="H258" s="64"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="93"/>
-      <c r="G259" s="67"/>
-      <c r="H259" s="67"/>
+      <c r="A259" s="32"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="64"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="93"/>
-      <c r="G260" s="67"/>
-      <c r="H260" s="67"/>
+      <c r="A260" s="32"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="64"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="93"/>
-      <c r="G261" s="67"/>
-      <c r="H261" s="67"/>
+      <c r="A261" s="32"/>
+      <c r="G261" s="64"/>
+      <c r="H261" s="64"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="93"/>
-      <c r="G262" s="67"/>
-      <c r="H262" s="67"/>
+      <c r="A262" s="32"/>
+      <c r="G262" s="64"/>
+      <c r="H262" s="64"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="93"/>
-      <c r="G263" s="67"/>
-      <c r="H263" s="67"/>
+      <c r="A263" s="32"/>
+      <c r="G263" s="64"/>
+      <c r="H263" s="64"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="93"/>
-      <c r="G264" s="67"/>
-      <c r="H264" s="67"/>
+      <c r="A264" s="32"/>
+      <c r="G264" s="64"/>
+      <c r="H264" s="64"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="93"/>
-      <c r="G265" s="67"/>
-      <c r="H265" s="67"/>
+      <c r="A265" s="32"/>
+      <c r="G265" s="64"/>
+      <c r="H265" s="64"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="93"/>
-      <c r="G266" s="67"/>
-      <c r="H266" s="67"/>
+      <c r="A266" s="32"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="64"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="93"/>
-      <c r="G267" s="67"/>
-      <c r="H267" s="67"/>
+      <c r="A267" s="32"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="64"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="93"/>
-      <c r="G268" s="67"/>
-      <c r="H268" s="67"/>
+      <c r="A268" s="32"/>
+      <c r="G268" s="64"/>
+      <c r="H268" s="64"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="93"/>
-      <c r="G269" s="67"/>
-      <c r="H269" s="67"/>
+      <c r="A269" s="32"/>
+      <c r="G269" s="64"/>
+      <c r="H269" s="64"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="93"/>
-      <c r="G270" s="67"/>
-      <c r="H270" s="67"/>
+      <c r="A270" s="32"/>
+      <c r="G270" s="64"/>
+      <c r="H270" s="64"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="93"/>
-      <c r="G271" s="67"/>
-      <c r="H271" s="67"/>
+      <c r="A271" s="32"/>
+      <c r="G271" s="64"/>
+      <c r="H271" s="64"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="93"/>
-      <c r="G272" s="67"/>
-      <c r="H272" s="67"/>
+      <c r="A272" s="32"/>
+      <c r="G272" s="64"/>
+      <c r="H272" s="64"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="93"/>
-      <c r="G273" s="67"/>
-      <c r="H273" s="67"/>
+      <c r="A273" s="32"/>
+      <c r="G273" s="64"/>
+      <c r="H273" s="64"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="93"/>
-      <c r="G274" s="67"/>
-      <c r="H274" s="67"/>
+      <c r="A274" s="32"/>
+      <c r="G274" s="64"/>
+      <c r="H274" s="64"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="93"/>
-      <c r="G275" s="67"/>
-      <c r="H275" s="67"/>
+      <c r="A275" s="32"/>
+      <c r="G275" s="64"/>
+      <c r="H275" s="64"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="93"/>
-      <c r="G276" s="67"/>
-      <c r="H276" s="67"/>
+      <c r="A276" s="32"/>
+      <c r="G276" s="64"/>
+      <c r="H276" s="64"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="93"/>
-      <c r="G277" s="67"/>
-      <c r="H277" s="67"/>
+      <c r="A277" s="32"/>
+      <c r="G277" s="64"/>
+      <c r="H277" s="64"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="93"/>
-      <c r="G278" s="67"/>
-      <c r="H278" s="67"/>
+      <c r="A278" s="32"/>
+      <c r="G278" s="64"/>
+      <c r="H278" s="64"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="93"/>
-      <c r="G279" s="67"/>
-      <c r="H279" s="67"/>
+      <c r="A279" s="32"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="64"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="93"/>
-      <c r="G280" s="67"/>
-      <c r="H280" s="67"/>
+      <c r="A280" s="32"/>
+      <c r="G280" s="64"/>
+      <c r="H280" s="64"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="93"/>
-      <c r="G281" s="67"/>
-      <c r="H281" s="67"/>
+      <c r="A281" s="32"/>
+      <c r="G281" s="64"/>
+      <c r="H281" s="64"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="93"/>
-      <c r="G282" s="67"/>
-      <c r="H282" s="67"/>
+      <c r="A282" s="32"/>
+      <c r="G282" s="64"/>
+      <c r="H282" s="64"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="93"/>
-      <c r="G283" s="67"/>
-      <c r="H283" s="67"/>
+      <c r="A283" s="32"/>
+      <c r="G283" s="64"/>
+      <c r="H283" s="64"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="93"/>
-      <c r="G284" s="67"/>
-      <c r="H284" s="67"/>
+      <c r="A284" s="32"/>
+      <c r="G284" s="64"/>
+      <c r="H284" s="64"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="93"/>
-      <c r="G285" s="67"/>
-      <c r="H285" s="67"/>
+      <c r="A285" s="32"/>
+      <c r="G285" s="64"/>
+      <c r="H285" s="64"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="93"/>
-      <c r="G286" s="67"/>
-      <c r="H286" s="67"/>
+      <c r="A286" s="32"/>
+      <c r="G286" s="64"/>
+      <c r="H286" s="64"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="93"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
+      <c r="A287" s="32"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="64"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="93"/>
-      <c r="G288" s="67"/>
-      <c r="H288" s="67"/>
+      <c r="A288" s="32"/>
+      <c r="G288" s="64"/>
+      <c r="H288" s="64"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="93"/>
-      <c r="G289" s="67"/>
-      <c r="H289" s="67"/>
+      <c r="A289" s="32"/>
+      <c r="G289" s="64"/>
+      <c r="H289" s="64"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="93"/>
-      <c r="G290" s="67"/>
-      <c r="H290" s="67"/>
+      <c r="A290" s="32"/>
+      <c r="G290" s="64"/>
+      <c r="H290" s="64"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="93"/>
-      <c r="G291" s="67"/>
-      <c r="H291" s="67"/>
+      <c r="A291" s="32"/>
+      <c r="G291" s="64"/>
+      <c r="H291" s="64"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="93"/>
-      <c r="G292" s="67"/>
-      <c r="H292" s="67"/>
+      <c r="A292" s="32"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="64"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="93"/>
-      <c r="G293" s="67"/>
-      <c r="H293" s="67"/>
+      <c r="A293" s="32"/>
+      <c r="G293" s="64"/>
+      <c r="H293" s="64"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="93"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
+      <c r="A294" s="32"/>
+      <c r="G294" s="64"/>
+      <c r="H294" s="64"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="93"/>
-      <c r="G295" s="67"/>
-      <c r="H295" s="67"/>
+      <c r="A295" s="32"/>
+      <c r="G295" s="64"/>
+      <c r="H295" s="64"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="93"/>
-      <c r="G296" s="67"/>
-      <c r="H296" s="67"/>
+      <c r="A296" s="32"/>
+      <c r="G296" s="64"/>
+      <c r="H296" s="64"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="93"/>
-      <c r="G297" s="67"/>
-      <c r="H297" s="67"/>
+      <c r="A297" s="32"/>
+      <c r="G297" s="64"/>
+      <c r="H297" s="64"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="93"/>
-      <c r="G298" s="67"/>
-      <c r="H298" s="67"/>
+      <c r="A298" s="32"/>
+      <c r="G298" s="64"/>
+      <c r="H298" s="64"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="93"/>
-      <c r="G299" s="67"/>
-      <c r="H299" s="67"/>
+      <c r="A299" s="32"/>
+      <c r="G299" s="64"/>
+      <c r="H299" s="64"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="93"/>
-      <c r="G300" s="67"/>
-      <c r="H300" s="67"/>
+      <c r="A300" s="32"/>
+      <c r="G300" s="64"/>
+      <c r="H300" s="64"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="93"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
+      <c r="A301" s="32"/>
+      <c r="G301" s="64"/>
+      <c r="H301" s="64"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="93"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
+      <c r="A302" s="32"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="64"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="93"/>
-      <c r="G303" s="67"/>
-      <c r="H303" s="67"/>
+      <c r="A303" s="32"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="64"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="93"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
+      <c r="A304" s="32"/>
+      <c r="G304" s="64"/>
+      <c r="H304" s="64"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="93"/>
-      <c r="G305" s="67"/>
-      <c r="H305" s="67"/>
+      <c r="A305" s="32"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="64"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="93"/>
-      <c r="G306" s="67"/>
-      <c r="H306" s="67"/>
+      <c r="A306" s="32"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="93"/>
-      <c r="G307" s="67"/>
-      <c r="H307" s="67"/>
+      <c r="A307" s="32"/>
+      <c r="G307" s="64"/>
+      <c r="H307" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16680,8 +16652,8 @@
     <hyperlink ref="H224" r:id="rId26" display="?this epo:isSubjectToProcedureSpecificTerm / epo:hasDirectAwardJustification &lt;http://publications.europa.eu/resource/authority/direct-award-justification/dir24-list&gt; ."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16691,7 +16663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16703,12 +16675,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.75"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="88" t="s">
         <v>904</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -16716,44 +16688,44 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="89" t="s">
         <v>906</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="90" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>913</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -16761,37 +16733,37 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="91" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="92" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="93" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="47" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="94" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="64"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>920</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -16799,23 +16771,23 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B19" s="100"/>
+      <c r="B19" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>924</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16824,7 +16796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16838,68 +16810,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>935</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16908,7 +16880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16922,64 +16894,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>945</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -16988,7 +16960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17001,12 +16973,12 @@
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67"/>
+      <c r="A1" s="64"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17015,7 +16987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17027,33 +16999,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="95" t="s">
         <v>946</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95" t="s">
         <v>947</v>
       </c>
-      <c r="D1" s="102"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>951</v>
       </c>
     </row>
@@ -17064,10 +17036,10 @@
       <c r="B3" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D3" s="103" t="str">
+      <c r="D3" s="96" t="str">
         <f aca="false">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
@@ -17079,10 +17051,10 @@
       <c r="B4" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <f aca="false">RIGHT(A4,LEN(A4) - (FIND(" == ",A4) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY_ADDITIONAL</v>
       </c>
@@ -17094,7 +17066,7 @@
       <c r="B5" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>954</v>
       </c>
     </row>
@@ -17105,49 +17077,49 @@
       <c r="B6" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="97" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="98" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>968</v>
       </c>
     </row>
@@ -17157,8 +17129,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17167,7 +17139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17179,59 +17151,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="95" t="s">
         <v>946</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="98" t="s">
         <v>972</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>975</v>
       </c>
     </row>
@@ -17240,8 +17212,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -871,7 +871,7 @@
     <t xml:space="preserve">Start Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-08</t>
+    <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">one value, or empty cell</t>
@@ -883,7 +883,7 @@
     <t xml:space="preserve">Min XSD Version</t>
   </si>
   <si>
-    <t xml:space="preserve">R2.0.9.S04.E01</t>
+    <t xml:space="preserve">R2.0.9.S03.E01</t>
   </si>
   <si>
     <t xml:space="preserve">This fiels to be checked and updated if necessary</t>
@@ -7248,7 +7248,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7357,7 +7357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>

--- a/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03_test/transformation/conceptual_mappings.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Legend" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Resources" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="RML_Modules" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Questions" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="CL1 Controlled List of Roles" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="CL2 Controlled List for Organis" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Mapping Remarks" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Legend" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Resources" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="RML_Modules" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Questions" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="CL1 Controlled List of Roles" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CL2 Controlled List for Organis" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -806,7 +807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="987">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -6200,6 +6201,39 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">There is no attribute defined in ePO to explicitly represent this information.
+We can infer it from the RDF data, by checking if there are more than one lot in the notice (e.g. COUNT(epo:Lot &gt; 1)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECT_CONTRACT/NO_LOT_DIVISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no attribute defined in ePO to explicitly represent this information.
+We can infer it from the RDF data, by checking if there is only one lot in the notice (e.g. COUNT(epo:Lot = 1)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are using the LOT_NO element to create the LotIdentifier value. This is done in Section II.
+The LOT_NO that is specified in Section V is used in the technical mapping to connect the contract to the right lot (which was created in Section II).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the NO_AWARDED_CONTRACT XML element is present in a particular AWARD_CONTRACT element, then there will be no Contract instance created for this case. We can infer the non-awarded lot (for which there is no contract signed) with a SPARQL query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/NO_AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the NO_AWARDED_TO_GROUP XML element is presentfor a particular awarded contract, then there will be no OrganisationGroup instance created for this awarded contract. We can infer the presence of this XML element from the RDF data, by checking if there is not an OrganisationGroup within a given Contract with a SPARQL query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/NO_SME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The presence of the &lt;NO_SME&gt; element means that the user did not check the "is an SME" checkbox in the form, which means that we don't have information about whether an organisation is an SME or not. There is no value in the vocabulary to express the "no SME" case: http://publications.europa.eu/resource/authority/economic-operator-size, so we can't represent the information that is in XML accurately in RDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Property path</t>
   </si>
   <si>
@@ -6321,12 +6355,12 @@
     <t xml:space="preserve">s6_complementary_information.rml.ttl</t>
   </si>
   <si>
+    <t xml:space="preserve">result_notice.rml.ttl</t>
+  </si>
+  <si>
     <t xml:space="preserve">annex_d1.rml.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">result_notice.rml.ttl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Informal (if possible to become formal)</t>
   </si>
   <si>
@@ -6394,6 +6428,9 @@
   </si>
   <si>
     <t xml:space="preserve">ADDRESS_REVIEW_INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL2 Controlled List for Organis</t>
   </si>
   <si>
     <t xml:space="preserve">is_natural_person == True</t>
@@ -6428,7 +6465,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6583,6 +6620,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -6638,7 +6682,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAC1ED"/>
-        <bgColor rgb="FFA9B7C6"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -6684,7 +6728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -6704,6 +6748,13 @@
       <right/>
       <top/>
       <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -6732,7 +6783,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7085,6 +7136,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7113,7 +7172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7125,7 +7184,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7191,7 +7250,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9B7C6"/>
+      <rgbColor rgb="FFB7B7B7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -7213,9 +7272,9 @@
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFEEECE1"/>
       <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FFA9B7C6"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFB6D7A8"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFC6E0B7"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -7245,7 +7304,7 @@
   </sheetPr>
   <dimension ref="A1:D990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
@@ -16667,6 +16726,1226 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z996"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+    </row>
+    <row r="6" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+    </row>
+    <row r="7" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>regexmatch($G2,"^[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 A7:B7">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>regexmatch($G2,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -16680,37 +17959,37 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="s">
-        <v>904</v>
+      <c r="A2" s="90" t="s">
+        <v>914</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89" t="s">
-        <v>906</v>
+      <c r="A3" s="91" t="s">
+        <v>916</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="90" t="s">
-        <v>908</v>
+      <c r="A4" s="92" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16721,41 +18000,41 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="91" t="s">
-        <v>915</v>
+      <c r="B12" s="93" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
-      <c r="B13" s="92" t="s">
-        <v>916</v>
+      <c r="B13" s="94" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="93" t="s">
-        <v>917</v>
+      <c r="B14" s="95" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="47" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="94" t="s">
-        <v>919</v>
+      <c r="B16" s="96" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16764,24 +18043,24 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B19" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -16795,7 +18074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16815,136 +18094,56 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.25"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
         <v>945</v>
       </c>
     </row>
@@ -16964,16 +18163,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.25"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64"/>
+      <c r="A1" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>955</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16987,6 +18239,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="64"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17006,53 +18285,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>946</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95" t="s">
-        <v>947</v>
-      </c>
-      <c r="D1" s="95"/>
+      <c r="A1" s="97" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97" t="s">
+        <v>957</v>
+      </c>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="D3" s="96" t="str">
+        <v>964</v>
+      </c>
+      <c r="D3" s="98" t="str">
         <f aca="false">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D4" s="4" t="str">
         <f aca="false">RIGHT(A4,LEN(A4) - (FIND(" == ",A4) + 3))</f>
@@ -17061,66 +18340,66 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>962</v>
+        <v>964</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>965</v>
+      <c r="D8" s="100" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -17138,15 +18417,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17157,54 +18436,54 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>946</v>
-      </c>
-      <c r="B1" s="95"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="97" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>972</v>
+        <v>985</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>983</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
